--- a/OptPython/Registros.xlsb.xlsx
+++ b/OptPython/Registros.xlsb.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nchubretovic\OneDrive - Entel\Escritorio\Sole\Tesis\OptPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C4F7FF-C172-44B2-8C25-0CE9C72C6B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A781EC2-3C28-4BDC-A418-CDB3AF019C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{AFDFF0EE-C16A-4C5D-A58F-D56EFC62F348}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{AFDFF0EE-C16A-4C5D-A58F-D56EFC62F348}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_1_30.50.50" sheetId="18" r:id="rId1"/>
-    <sheet name="Model_1_50.50.50" sheetId="19" r:id="rId2"/>
-    <sheet name="Model_1_20.50.50" sheetId="20" r:id="rId3"/>
+    <sheet name="Model_1_30.50.50-1" sheetId="21" r:id="rId2"/>
+    <sheet name="Model_1_50.50.50" sheetId="19" r:id="rId3"/>
+    <sheet name="Model_1_20.50.50" sheetId="20" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="45">
   <si>
     <t>particles</t>
   </si>
@@ -162,13 +163,16 @@
     <t>R_clay [Mpa]</t>
   </si>
   <si>
-    <t>Obs: Crea linea de tendencia</t>
+    <t>Obs: Misma curva. Se termina la licencia no sé en que iteracion pero despues de la 30. Element size en 0.009 por error.</t>
   </si>
   <si>
-    <t>Obs: C</t>
+    <t>Obs: Crea linea de tendencia. Element size en 0.009 por error.</t>
   </si>
   <si>
-    <t>Obs: Misma curva. Se termina la licencia no sé en que iteracion pero despues de la 30.</t>
+    <t>Obs: Element size 0.004.</t>
+  </si>
+  <si>
+    <t>Obs: Crea linea de tendencia. Element size en 0.004.</t>
   </si>
 </sst>
 </file>
@@ -1061,6 +1065,615 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CL"/>
+              <a:t>Weight</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t> [kg] vs Thermal Transmitance [W/m2K]</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Model_1_30.50.50'!$B$10:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>8.2349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0155200000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2909900000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3770800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8302500000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1349200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0739799999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8986000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.4713200000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3620999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3395799999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.20153</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3040099999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.92293</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5283500000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.97464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8626499999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.4082100000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.47729</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.65021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5794000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1381300000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.4787300000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9260600000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1666600000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2912800000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.25258</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.6523899999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5548599999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8816699999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.6211000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Model_1_30.50.50'!$C$10:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.15663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.25088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.14828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.55674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2706900000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.24356</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2688900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1342000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.42259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.14009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4655499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5738300000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1830400000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6755</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.57934</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.64612</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4055899999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6943999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6605300000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.66391</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4678100000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1341699999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.63534</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1600600000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4300200000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.45201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.29498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2233400000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.37632</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5984-435B-B371-F278D4D2BE22}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1320491520"/>
+        <c:axId val="1320488192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1320491520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Weight</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1320488192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1320488192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Thermal Transmitance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1320491520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
               <a:t>Weight [kg] vs Thermal Transmitance [W/m2K]</a:t>
             </a:r>
           </a:p>
@@ -1672,7 +2285,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1753,10 +2366,10 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1767,11 +2380,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1779,204 +2392,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Model_1_30.50.50'!$B$10:$B$40</c:f>
+              <c:f>'Model_1_20.50.50'!$B$10:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.2349999999999994</c:v>
+                  <c:v>8.3511000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0155200000000004</c:v>
+                  <c:v>3.9559099999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2909900000000007</c:v>
+                  <c:v>7.35724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3770800000000003</c:v>
+                  <c:v>4.32029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8302500000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.1349200000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0739799999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.8986000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.4713200000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.3620999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.3395799999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.20153</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.3040099999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.92293</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5283500000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.97464</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.8626499999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.4082100000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.47729</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.65021</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.5794000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.1381300000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.4787300000000005</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.9260600000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.1666600000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.2912800000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.25258</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.6523899999999996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.5548599999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.8816699999999997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.6211000000000002</c:v>
+                  <c:v>8.4046299999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model_1_30.50.50'!$C$10:$C$40</c:f>
+              <c:f>'Model_1_20.50.50'!$C$10:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.15663</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.25088</c:v>
+                  <c:v>1.6879</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.14828</c:v>
+                  <c:v>1.32213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.55674</c:v>
+                  <c:v>1.6471899999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2706900000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2358</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.24356</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2688900000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1342000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.42259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.14009</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4655499999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5738300000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1830400000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6755</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.57934</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.64612</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4055899999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6943999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6605300000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.66391</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.4678100000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.1341699999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.63534</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.1600600000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4300200000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.45201</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.29498</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.2233400000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.37632</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.3227</c:v>
+                  <c:v>1.1791499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1984,7 +2441,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89AA-4812-BB7A-1A6231530AC7}"/>
+              <c16:uniqueId val="{00000000-849D-456B-93A3-1894AA88FA92}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1998,6 +2455,260 @@
         </c:dLbls>
         <c:axId val="1320491520"/>
         <c:axId val="1320488192"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model_1_30.50.50'!$B$10:$B$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0">
+                        <c:v>8.2349999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7.0155200000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.2909900000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.3770800000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.8302500000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.1349200000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7.0739799999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.8986000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.4713200000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5.3620999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8.3395799999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>5.20153</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>4.3040099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7.92293</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3.5283500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.97464</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>3.8626499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>5.4082100000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>3.47729</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>3.65021</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>3.5794000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5.1381300000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>8.4787300000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>3.9260600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>8.1666600000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>5.2912800000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>5.25258</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>6.6523899999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>7.5548599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>5.8816699999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>6.6211000000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Model_1_30.50.50'!$C$10:$C$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="31"/>
+                      <c:pt idx="0">
+                        <c:v>1.15663</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.25088</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.14828</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.55674</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.2706900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.2358</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.24356</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.2688900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.1342000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.42259</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.14009</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.4655499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.5738300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.1830400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.6755</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.57934</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.64612</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.4055899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.6943999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.6605300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.66391</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.4678100000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.1341699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.63534</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.1600600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.4300200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.45201</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.29498</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.2233400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.37632</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.3227</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-89AA-4812-BB7A-1A6231530AC7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1320491520"/>
@@ -2362,6 +3073,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3949,6 +4700,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3994,6 +5261,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>387441</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>64420</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138042</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC67A5C0-DB87-477B-8E8D-90D448624BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>261136</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -4031,7 +5341,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4373,8 +5683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5B13DB-F2E6-4D48-B712-225CDCFA4D1E}">
   <dimension ref="A1:AN65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4397,7 +5707,7 @@
       <c r="A1" s="3"/>
       <c r="D1" s="3"/>
       <c r="I1" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -4473,7 +5783,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="11" t="s">
@@ -4503,7 +5813,7 @@
       </c>
       <c r="C5" s="4">
         <f>C2*C4</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="11" t="s">
@@ -7943,11 +9253,3581 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BAFD97-F98A-46E7-AA06-966BE16BD7F2}">
+  <dimension ref="A1:AN65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="I1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="3"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>154</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>113</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="3"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="5"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <f>C2*C4</f>
+        <v>1000</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="3"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4">
+        <f>C6/(60*60)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="5"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AM7" s="15"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="AM8" s="15"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM9" s="15"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>8.2349999999999994</v>
+      </c>
+      <c r="C10">
+        <v>1.15663</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>13</v>
+      </c>
+      <c r="O10">
+        <v>11</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>23</v>
+      </c>
+      <c r="R10">
+        <v>14</v>
+      </c>
+      <c r="S10">
+        <v>53</v>
+      </c>
+      <c r="T10">
+        <v>12</v>
+      </c>
+      <c r="U10">
+        <v>290</v>
+      </c>
+      <c r="V10">
+        <v>0.61</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" ref="W10:W40" si="0">SUM(D10:S10)*T10</f>
+        <v>4656</v>
+      </c>
+      <c r="X10" s="7">
+        <f>$F$2*U10</f>
+        <v>44660</v>
+      </c>
+      <c r="Y10" s="7">
+        <f>X10-W10</f>
+        <v>40004</v>
+      </c>
+      <c r="Z10" s="9">
+        <f>Y10/X10</f>
+        <v>0.89574563367666815</v>
+      </c>
+      <c r="AA10" s="18">
+        <f>0.0000020841*V10+0.00000055042</f>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB10" s="10">
+        <f t="shared" ref="AB10:AB40" si="1">76.766*V10-26.362</f>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC10" s="14">
+        <f>AB10*Z10</f>
+        <v>18.331667287057773</v>
+      </c>
+      <c r="AD10" s="10" t="str">
+        <f t="shared" ref="AD10:AD40" si="2">IF(AC10&gt;=$F$4,"cumple","no cumple")</f>
+        <v>cumple</v>
+      </c>
+      <c r="AM10" s="15"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <f>1+A10</f>
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>7.0155200000000004</v>
+      </c>
+      <c r="C11">
+        <v>1.25088</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>33</v>
+      </c>
+      <c r="I11">
+        <v>32</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>26</v>
+      </c>
+      <c r="L11">
+        <v>41</v>
+      </c>
+      <c r="M11">
+        <v>25</v>
+      </c>
+      <c r="N11">
+        <v>14</v>
+      </c>
+      <c r="O11">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>23</v>
+      </c>
+      <c r="R11">
+        <v>14</v>
+      </c>
+      <c r="S11">
+        <v>46</v>
+      </c>
+      <c r="T11" s="12">
+        <v>12</v>
+      </c>
+      <c r="U11">
+        <v>252</v>
+      </c>
+      <c r="V11">
+        <v>0.61</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="0"/>
+        <v>4728</v>
+      </c>
+      <c r="X11" s="7">
+        <f t="shared" ref="X11:X40" si="3">$F$2*U11</f>
+        <v>38808</v>
+      </c>
+      <c r="Y11" s="7">
+        <f t="shared" ref="Y11:Y40" si="4">X11-W11</f>
+        <v>34080</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" ref="Z11:Z40" si="5">Y11/X11</f>
+        <v>0.87816944959802101</v>
+      </c>
+      <c r="AA11" s="18">
+        <f t="shared" ref="AA11:AA40" si="6">0.0000020841*V11+0.00000055042</f>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB11" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC11" s="14">
+        <f t="shared" ref="AC11:AC40" si="7">AB11*Z11</f>
+        <v>17.971966110080398</v>
+      </c>
+      <c r="AD11" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+      <c r="AM11" s="15"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <f t="shared" ref="A12:A40" si="8">1+A11</f>
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>8.2909900000000007</v>
+      </c>
+      <c r="C12">
+        <v>1.14828</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>33</v>
+      </c>
+      <c r="I12">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <v>40</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>13</v>
+      </c>
+      <c r="O12">
+        <v>13</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>23</v>
+      </c>
+      <c r="R12">
+        <v>14</v>
+      </c>
+      <c r="S12">
+        <v>54</v>
+      </c>
+      <c r="T12">
+        <v>12</v>
+      </c>
+      <c r="U12">
+        <v>292</v>
+      </c>
+      <c r="V12">
+        <v>0.61</v>
+      </c>
+      <c r="W12" s="7">
+        <f t="shared" si="0"/>
+        <v>4692</v>
+      </c>
+      <c r="X12" s="7">
+        <f t="shared" si="3"/>
+        <v>44968</v>
+      </c>
+      <c r="Y12" s="7">
+        <f t="shared" si="4"/>
+        <v>40276</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" si="5"/>
+        <v>0.89565913538516273</v>
+      </c>
+      <c r="AA12" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB12" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC12" s="14">
+        <f t="shared" si="7"/>
+        <v>18.329897077032559</v>
+      </c>
+      <c r="AD12" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+      <c r="AM12" s="15"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>4.3770800000000003</v>
+      </c>
+      <c r="C13">
+        <v>1.55674</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>22</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <v>16</v>
+      </c>
+      <c r="N13">
+        <v>13</v>
+      </c>
+      <c r="O13">
+        <v>13</v>
+      </c>
+      <c r="P13">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>23</v>
+      </c>
+      <c r="R13">
+        <v>14</v>
+      </c>
+      <c r="S13">
+        <v>46</v>
+      </c>
+      <c r="T13">
+        <v>11</v>
+      </c>
+      <c r="U13">
+        <v>166</v>
+      </c>
+      <c r="V13">
+        <v>0.61</v>
+      </c>
+      <c r="W13" s="7">
+        <f t="shared" si="0"/>
+        <v>4301</v>
+      </c>
+      <c r="X13" s="7">
+        <f t="shared" si="3"/>
+        <v>25564</v>
+      </c>
+      <c r="Y13" s="7">
+        <f t="shared" si="4"/>
+        <v>21263</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="5"/>
+        <v>0.83175559380378661</v>
+      </c>
+      <c r="AA13" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB13" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC13" s="14">
+        <f t="shared" si="7"/>
+        <v>17.022094483648885</v>
+      </c>
+      <c r="AD13" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+      <c r="AM13" s="15"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>6.8302500000000004</v>
+      </c>
+      <c r="C14">
+        <v>1.2706900000000001</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>46</v>
+      </c>
+      <c r="H14">
+        <v>33</v>
+      </c>
+      <c r="I14">
+        <v>32</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>27</v>
+      </c>
+      <c r="L14">
+        <v>41</v>
+      </c>
+      <c r="M14">
+        <v>25</v>
+      </c>
+      <c r="N14">
+        <v>14</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>22</v>
+      </c>
+      <c r="R14">
+        <v>14</v>
+      </c>
+      <c r="S14">
+        <v>46</v>
+      </c>
+      <c r="T14">
+        <v>12</v>
+      </c>
+      <c r="U14">
+        <v>246</v>
+      </c>
+      <c r="V14">
+        <v>0.61</v>
+      </c>
+      <c r="W14" s="7">
+        <f t="shared" si="0"/>
+        <v>4704</v>
+      </c>
+      <c r="X14" s="7">
+        <f t="shared" si="3"/>
+        <v>37884</v>
+      </c>
+      <c r="Y14" s="7">
+        <f t="shared" si="4"/>
+        <v>33180</v>
+      </c>
+      <c r="Z14" s="9">
+        <f t="shared" si="5"/>
+        <v>0.87583148558758317</v>
+      </c>
+      <c r="AA14" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB14" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC14" s="14">
+        <f t="shared" si="7"/>
+        <v>17.924119068736147</v>
+      </c>
+      <c r="AD14" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+      <c r="AM14" s="15"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>7.1349200000000002</v>
+      </c>
+      <c r="C15">
+        <v>1.2358</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>46</v>
+      </c>
+      <c r="H15">
+        <v>33</v>
+      </c>
+      <c r="I15">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>27</v>
+      </c>
+      <c r="L15">
+        <v>41</v>
+      </c>
+      <c r="M15">
+        <v>25</v>
+      </c>
+      <c r="N15">
+        <v>14</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>23</v>
+      </c>
+      <c r="R15">
+        <v>14</v>
+      </c>
+      <c r="S15">
+        <v>46</v>
+      </c>
+      <c r="T15">
+        <v>12</v>
+      </c>
+      <c r="U15">
+        <v>256</v>
+      </c>
+      <c r="V15">
+        <v>0.61</v>
+      </c>
+      <c r="W15" s="7">
+        <f t="shared" si="0"/>
+        <v>4764</v>
+      </c>
+      <c r="X15" s="7">
+        <f t="shared" si="3"/>
+        <v>39424</v>
+      </c>
+      <c r="Y15" s="7">
+        <f t="shared" si="4"/>
+        <v>34660</v>
+      </c>
+      <c r="Z15" s="9">
+        <f t="shared" si="5"/>
+        <v>0.87915990259740262</v>
+      </c>
+      <c r="AA15" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB15" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC15" s="14">
+        <f t="shared" si="7"/>
+        <v>17.992235988230522</v>
+      </c>
+      <c r="AD15" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+      <c r="AM15" s="15"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>7.0739799999999997</v>
+      </c>
+      <c r="C16">
+        <v>1.24356</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>47</v>
+      </c>
+      <c r="H16">
+        <v>33</v>
+      </c>
+      <c r="I16">
+        <v>32</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>26</v>
+      </c>
+      <c r="L16">
+        <v>41</v>
+      </c>
+      <c r="M16">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>23</v>
+      </c>
+      <c r="R16">
+        <v>14</v>
+      </c>
+      <c r="S16">
+        <v>46</v>
+      </c>
+      <c r="T16">
+        <v>12</v>
+      </c>
+      <c r="U16">
+        <v>254</v>
+      </c>
+      <c r="V16">
+        <v>0.61</v>
+      </c>
+      <c r="W16" s="7">
+        <f t="shared" si="0"/>
+        <v>4752</v>
+      </c>
+      <c r="X16" s="7">
+        <f t="shared" si="3"/>
+        <v>39116</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" si="4"/>
+        <v>34364</v>
+      </c>
+      <c r="Z16" s="9">
+        <f t="shared" si="5"/>
+        <v>0.87851518560179975</v>
+      </c>
+      <c r="AA16" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB16" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC16" s="14">
+        <f t="shared" si="7"/>
+        <v>17.979041687289094</v>
+      </c>
+      <c r="AD16" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+      <c r="AM16" s="15"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>6.8986000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.2688900000000001</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17">
+        <v>46</v>
+      </c>
+      <c r="H17">
+        <v>33</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>26</v>
+      </c>
+      <c r="L17">
+        <v>41</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+      <c r="N17">
+        <v>14</v>
+      </c>
+      <c r="O17">
+        <v>17</v>
+      </c>
+      <c r="P17">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>23</v>
+      </c>
+      <c r="R17">
+        <v>14</v>
+      </c>
+      <c r="S17">
+        <v>46</v>
+      </c>
+      <c r="T17">
+        <v>12</v>
+      </c>
+      <c r="U17">
+        <v>248</v>
+      </c>
+      <c r="V17">
+        <v>0.61</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" si="0"/>
+        <v>4680</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" si="3"/>
+        <v>38192</v>
+      </c>
+      <c r="Y17" s="7">
+        <f t="shared" si="4"/>
+        <v>33512</v>
+      </c>
+      <c r="Z17" s="9">
+        <f t="shared" si="5"/>
+        <v>0.87746124842899031</v>
+      </c>
+      <c r="AA17" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB17" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC17" s="14">
+        <f t="shared" si="7"/>
+        <v>17.957472589023883</v>
+      </c>
+      <c r="AD17" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+      <c r="AM17" s="15"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>8.4713200000000004</v>
+      </c>
+      <c r="C18">
+        <v>1.1342000000000001</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>38</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>33</v>
+      </c>
+      <c r="I18">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="K18">
+        <v>27</v>
+      </c>
+      <c r="L18">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>25</v>
+      </c>
+      <c r="N18">
+        <v>13</v>
+      </c>
+      <c r="O18">
+        <v>13</v>
+      </c>
+      <c r="P18">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>23</v>
+      </c>
+      <c r="R18">
+        <v>14</v>
+      </c>
+      <c r="S18">
+        <v>46</v>
+      </c>
+      <c r="T18">
+        <v>12</v>
+      </c>
+      <c r="U18">
+        <v>298</v>
+      </c>
+      <c r="V18">
+        <v>0.61</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="0"/>
+        <v>4740</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" si="3"/>
+        <v>45892</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" si="4"/>
+        <v>41152</v>
+      </c>
+      <c r="Z18" s="9">
+        <f t="shared" si="5"/>
+        <v>0.89671402423080271</v>
+      </c>
+      <c r="AA18" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB18" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC18" s="14">
+        <f t="shared" si="7"/>
+        <v>18.351485651529682</v>
+      </c>
+      <c r="AD18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+      <c r="AM18" s="15"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>5.3620999999999999</v>
+      </c>
+      <c r="C19">
+        <v>1.42259</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>33</v>
+      </c>
+      <c r="I19">
+        <v>32</v>
+      </c>
+      <c r="J19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>27</v>
+      </c>
+      <c r="L19">
+        <v>41</v>
+      </c>
+      <c r="M19">
+        <v>25</v>
+      </c>
+      <c r="N19">
+        <v>13</v>
+      </c>
+      <c r="O19">
+        <v>13</v>
+      </c>
+      <c r="P19">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>23</v>
+      </c>
+      <c r="R19">
+        <v>14</v>
+      </c>
+      <c r="S19">
+        <v>46</v>
+      </c>
+      <c r="T19">
+        <v>12</v>
+      </c>
+      <c r="U19">
+        <v>200</v>
+      </c>
+      <c r="V19">
+        <v>0.61</v>
+      </c>
+      <c r="W19" s="7">
+        <f t="shared" si="0"/>
+        <v>4752</v>
+      </c>
+      <c r="X19" s="7">
+        <f t="shared" si="3"/>
+        <v>30800</v>
+      </c>
+      <c r="Y19" s="7">
+        <f t="shared" si="4"/>
+        <v>26048</v>
+      </c>
+      <c r="Z19" s="9">
+        <f t="shared" si="5"/>
+        <v>0.84571428571428575</v>
+      </c>
+      <c r="AA19" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB19" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC19" s="14">
+        <f t="shared" si="7"/>
+        <v>17.307762742857147</v>
+      </c>
+      <c r="AD19" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>8.3395799999999998</v>
+      </c>
+      <c r="C20">
+        <v>1.14009</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>39</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="H20">
+        <v>33</v>
+      </c>
+      <c r="I20">
+        <v>32</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>26</v>
+      </c>
+      <c r="L20">
+        <v>40</v>
+      </c>
+      <c r="M20">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>13</v>
+      </c>
+      <c r="O20">
+        <v>13</v>
+      </c>
+      <c r="P20">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>23</v>
+      </c>
+      <c r="R20">
+        <v>14</v>
+      </c>
+      <c r="S20">
+        <v>46</v>
+      </c>
+      <c r="T20">
+        <v>12</v>
+      </c>
+      <c r="U20">
+        <v>294</v>
+      </c>
+      <c r="V20">
+        <v>0.61</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" si="0"/>
+        <v>4764</v>
+      </c>
+      <c r="X20" s="7">
+        <f t="shared" si="3"/>
+        <v>45276</v>
+      </c>
+      <c r="Y20" s="7">
+        <f t="shared" si="4"/>
+        <v>40512</v>
+      </c>
+      <c r="Z20" s="9">
+        <f t="shared" si="5"/>
+        <v>0.89477869069705807</v>
+      </c>
+      <c r="AA20" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB20" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC20" s="14">
+        <f t="shared" si="7"/>
+        <v>18.311878547574878</v>
+      </c>
+      <c r="AD20" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>5.20153</v>
+      </c>
+      <c r="C21">
+        <v>1.4655499999999999</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>38</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>33</v>
+      </c>
+      <c r="I21">
+        <v>32</v>
+      </c>
+      <c r="J21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>13</v>
+      </c>
+      <c r="O21">
+        <v>13</v>
+      </c>
+      <c r="P21">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>23</v>
+      </c>
+      <c r="R21">
+        <v>14</v>
+      </c>
+      <c r="S21">
+        <v>46</v>
+      </c>
+      <c r="T21">
+        <v>12</v>
+      </c>
+      <c r="U21">
+        <v>194</v>
+      </c>
+      <c r="V21">
+        <v>0.61</v>
+      </c>
+      <c r="W21" s="7">
+        <f t="shared" si="0"/>
+        <v>4608</v>
+      </c>
+      <c r="X21" s="7">
+        <f t="shared" si="3"/>
+        <v>29876</v>
+      </c>
+      <c r="Y21" s="7">
+        <f t="shared" si="4"/>
+        <v>25268</v>
+      </c>
+      <c r="Z21" s="9">
+        <f t="shared" si="5"/>
+        <v>0.84576248493774264</v>
+      </c>
+      <c r="AA21" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB21" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC21" s="14">
+        <f t="shared" si="7"/>
+        <v>17.30874915249699</v>
+      </c>
+      <c r="AD21" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>4.3040099999999999</v>
+      </c>
+      <c r="C22">
+        <v>1.5738300000000001</v>
+      </c>
+      <c r="D22">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>33</v>
+      </c>
+      <c r="I22">
+        <v>29</v>
+      </c>
+      <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22">
+        <v>31</v>
+      </c>
+      <c r="L22">
+        <v>40</v>
+      </c>
+      <c r="M22">
+        <v>16</v>
+      </c>
+      <c r="N22">
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <v>11</v>
+      </c>
+      <c r="P22">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>23</v>
+      </c>
+      <c r="R22">
+        <v>14</v>
+      </c>
+      <c r="S22">
+        <v>53</v>
+      </c>
+      <c r="T22">
+        <v>12</v>
+      </c>
+      <c r="U22">
+        <v>166</v>
+      </c>
+      <c r="V22">
+        <v>0.61</v>
+      </c>
+      <c r="W22" s="7">
+        <f t="shared" si="0"/>
+        <v>4656</v>
+      </c>
+      <c r="X22" s="7">
+        <f t="shared" si="3"/>
+        <v>25564</v>
+      </c>
+      <c r="Y22" s="7">
+        <f t="shared" si="4"/>
+        <v>20908</v>
+      </c>
+      <c r="Z22" s="9">
+        <f t="shared" si="5"/>
+        <v>0.81786887810984199</v>
+      </c>
+      <c r="AA22" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB22" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC22" s="14">
+        <f t="shared" si="7"/>
+        <v>16.737899236426227</v>
+      </c>
+      <c r="AD22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>7.92293</v>
+      </c>
+      <c r="C23">
+        <v>1.1830400000000001</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23">
+        <v>48</v>
+      </c>
+      <c r="H23">
+        <v>33</v>
+      </c>
+      <c r="I23">
+        <v>32</v>
+      </c>
+      <c r="J23">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>27</v>
+      </c>
+      <c r="L23">
+        <v>43</v>
+      </c>
+      <c r="M23">
+        <v>16</v>
+      </c>
+      <c r="N23">
+        <v>14</v>
+      </c>
+      <c r="O23">
+        <v>13</v>
+      </c>
+      <c r="P23">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>23</v>
+      </c>
+      <c r="R23">
+        <v>14</v>
+      </c>
+      <c r="S23">
+        <v>45</v>
+      </c>
+      <c r="T23">
+        <v>12</v>
+      </c>
+      <c r="U23">
+        <v>280</v>
+      </c>
+      <c r="V23">
+        <v>0.61</v>
+      </c>
+      <c r="W23" s="7">
+        <f t="shared" si="0"/>
+        <v>4632</v>
+      </c>
+      <c r="X23" s="7">
+        <f t="shared" si="3"/>
+        <v>43120</v>
+      </c>
+      <c r="Y23" s="7">
+        <f t="shared" si="4"/>
+        <v>38488</v>
+      </c>
+      <c r="Z23" s="9">
+        <f t="shared" si="5"/>
+        <v>0.89257884972170687</v>
+      </c>
+      <c r="AA23" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB23" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC23" s="14">
+        <f t="shared" si="7"/>
+        <v>18.266858230055661</v>
+      </c>
+      <c r="AD23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>3.5283500000000001</v>
+      </c>
+      <c r="C24">
+        <v>1.6755</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <v>46</v>
+      </c>
+      <c r="H24">
+        <v>35</v>
+      </c>
+      <c r="I24">
+        <v>32</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>26</v>
+      </c>
+      <c r="L24">
+        <v>41</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>14</v>
+      </c>
+      <c r="O24">
+        <v>13</v>
+      </c>
+      <c r="P24">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>23</v>
+      </c>
+      <c r="R24">
+        <v>14</v>
+      </c>
+      <c r="S24">
+        <v>46</v>
+      </c>
+      <c r="T24">
+        <v>12</v>
+      </c>
+      <c r="U24">
+        <v>142</v>
+      </c>
+      <c r="V24">
+        <v>0.61</v>
+      </c>
+      <c r="W24" s="7">
+        <f t="shared" si="0"/>
+        <v>4728</v>
+      </c>
+      <c r="X24" s="7">
+        <f t="shared" si="3"/>
+        <v>21868</v>
+      </c>
+      <c r="Y24" s="7">
+        <f t="shared" si="4"/>
+        <v>17140</v>
+      </c>
+      <c r="Z24" s="9">
+        <f t="shared" si="5"/>
+        <v>0.78379367111761478</v>
+      </c>
+      <c r="AA24" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB24" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC24" s="14">
+        <f t="shared" si="7"/>
+        <v>16.040541265776479</v>
+      </c>
+      <c r="AD24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>3.97464</v>
+      </c>
+      <c r="C25">
+        <v>1.57934</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25">
+        <v>48</v>
+      </c>
+      <c r="H25">
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <v>60</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>16</v>
+      </c>
+      <c r="N25">
+        <v>14</v>
+      </c>
+      <c r="O25">
+        <v>13</v>
+      </c>
+      <c r="P25">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>23</v>
+      </c>
+      <c r="R25">
+        <v>14</v>
+      </c>
+      <c r="S25">
+        <v>46</v>
+      </c>
+      <c r="T25">
+        <v>12</v>
+      </c>
+      <c r="U25">
+        <v>156</v>
+      </c>
+      <c r="V25">
+        <v>0.61</v>
+      </c>
+      <c r="W25" s="7">
+        <f t="shared" si="0"/>
+        <v>4716</v>
+      </c>
+      <c r="X25" s="7">
+        <f t="shared" si="3"/>
+        <v>24024</v>
+      </c>
+      <c r="Y25" s="7">
+        <f t="shared" si="4"/>
+        <v>19308</v>
+      </c>
+      <c r="Z25" s="9">
+        <f t="shared" si="5"/>
+        <v>0.80369630369630374</v>
+      </c>
+      <c r="AA25" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB25" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC25" s="14">
+        <f t="shared" si="7"/>
+        <v>16.447853816183819</v>
+      </c>
+      <c r="AD25" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>3.8626499999999999</v>
+      </c>
+      <c r="C26">
+        <v>1.64612</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>38</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>32</v>
+      </c>
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>26</v>
+      </c>
+      <c r="L26">
+        <v>41</v>
+      </c>
+      <c r="M26">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>13</v>
+      </c>
+      <c r="O26">
+        <v>13</v>
+      </c>
+      <c r="P26">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>23</v>
+      </c>
+      <c r="R26">
+        <v>14</v>
+      </c>
+      <c r="S26">
+        <v>46</v>
+      </c>
+      <c r="T26">
+        <v>12</v>
+      </c>
+      <c r="U26">
+        <v>152</v>
+      </c>
+      <c r="V26">
+        <v>0.61</v>
+      </c>
+      <c r="W26" s="7">
+        <f t="shared" si="0"/>
+        <v>4644</v>
+      </c>
+      <c r="X26" s="7">
+        <f t="shared" si="3"/>
+        <v>23408</v>
+      </c>
+      <c r="Y26" s="7">
+        <f t="shared" si="4"/>
+        <v>18764</v>
+      </c>
+      <c r="Z26" s="9">
+        <f t="shared" si="5"/>
+        <v>0.80160628844839377</v>
+      </c>
+      <c r="AA26" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB26" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC26" s="14">
+        <f t="shared" si="7"/>
+        <v>16.405081110731377</v>
+      </c>
+      <c r="AD26" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>5.4082100000000004</v>
+      </c>
+      <c r="C27">
+        <v>1.4055899999999999</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>24</v>
+      </c>
+      <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>33</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>27</v>
+      </c>
+      <c r="L27">
+        <v>44</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <v>13</v>
+      </c>
+      <c r="O27">
+        <v>13</v>
+      </c>
+      <c r="P27">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>23</v>
+      </c>
+      <c r="R27">
+        <v>14</v>
+      </c>
+      <c r="S27">
+        <v>46</v>
+      </c>
+      <c r="T27">
+        <v>12</v>
+      </c>
+      <c r="U27">
+        <v>202</v>
+      </c>
+      <c r="V27">
+        <v>0.61</v>
+      </c>
+      <c r="W27" s="7">
+        <f t="shared" si="0"/>
+        <v>4836</v>
+      </c>
+      <c r="X27" s="7">
+        <f t="shared" si="3"/>
+        <v>31108</v>
+      </c>
+      <c r="Y27" s="7">
+        <f t="shared" si="4"/>
+        <v>26272</v>
+      </c>
+      <c r="Z27" s="9">
+        <f t="shared" si="5"/>
+        <v>0.8445415970168445</v>
+      </c>
+      <c r="AA27" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB27" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC27" s="14">
+        <f t="shared" si="7"/>
+        <v>17.283763363764951</v>
+      </c>
+      <c r="AD27" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>3.47729</v>
+      </c>
+      <c r="C28">
+        <v>1.6943999999999999</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>48</v>
+      </c>
+      <c r="H28">
+        <v>33</v>
+      </c>
+      <c r="I28">
+        <v>32</v>
+      </c>
+      <c r="J28">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="L28">
+        <v>43</v>
+      </c>
+      <c r="M28">
+        <v>16</v>
+      </c>
+      <c r="N28">
+        <v>14</v>
+      </c>
+      <c r="O28">
+        <v>13</v>
+      </c>
+      <c r="P28">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>23</v>
+      </c>
+      <c r="R28">
+        <v>14</v>
+      </c>
+      <c r="S28">
+        <v>45</v>
+      </c>
+      <c r="T28">
+        <v>12</v>
+      </c>
+      <c r="U28">
+        <v>140</v>
+      </c>
+      <c r="V28">
+        <v>0.61</v>
+      </c>
+      <c r="W28" s="7">
+        <f t="shared" si="0"/>
+        <v>4668</v>
+      </c>
+      <c r="X28" s="7">
+        <f t="shared" si="3"/>
+        <v>21560</v>
+      </c>
+      <c r="Y28" s="7">
+        <f t="shared" si="4"/>
+        <v>16892</v>
+      </c>
+      <c r="Z28" s="9">
+        <f t="shared" si="5"/>
+        <v>0.78348794063079774</v>
+      </c>
+      <c r="AA28" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB28" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC28" s="14">
+        <f t="shared" si="7"/>
+        <v>16.034284411873845</v>
+      </c>
+      <c r="AD28" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>3.65021</v>
+      </c>
+      <c r="C29">
+        <v>1.6605300000000001</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>39</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29">
+        <v>24</v>
+      </c>
+      <c r="H29">
+        <v>33</v>
+      </c>
+      <c r="I29">
+        <v>32</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>26</v>
+      </c>
+      <c r="L29">
+        <v>40</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>13</v>
+      </c>
+      <c r="O29">
+        <v>13</v>
+      </c>
+      <c r="P29">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>23</v>
+      </c>
+      <c r="R29">
+        <v>14</v>
+      </c>
+      <c r="S29">
+        <v>46</v>
+      </c>
+      <c r="T29">
+        <v>12</v>
+      </c>
+      <c r="U29">
+        <v>146</v>
+      </c>
+      <c r="V29">
+        <v>0.61</v>
+      </c>
+      <c r="W29" s="7">
+        <f t="shared" si="0"/>
+        <v>4752</v>
+      </c>
+      <c r="X29" s="7">
+        <f t="shared" si="3"/>
+        <v>22484</v>
+      </c>
+      <c r="Y29" s="7">
+        <f t="shared" si="4"/>
+        <v>17732</v>
+      </c>
+      <c r="Z29" s="9">
+        <f t="shared" si="5"/>
+        <v>0.78864970645792565</v>
+      </c>
+      <c r="AA29" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB29" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC29" s="14">
+        <f t="shared" si="7"/>
+        <v>16.139921291585132</v>
+      </c>
+      <c r="AD29" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>3.5794000000000001</v>
+      </c>
+      <c r="C30">
+        <v>1.66391</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>39</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>24</v>
+      </c>
+      <c r="H30">
+        <v>33</v>
+      </c>
+      <c r="I30">
+        <v>32</v>
+      </c>
+      <c r="J30">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>26</v>
+      </c>
+      <c r="L30">
+        <v>41</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>14</v>
+      </c>
+      <c r="O30">
+        <v>13</v>
+      </c>
+      <c r="P30">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>23</v>
+      </c>
+      <c r="R30">
+        <v>14</v>
+      </c>
+      <c r="S30">
+        <v>46</v>
+      </c>
+      <c r="T30">
+        <v>12</v>
+      </c>
+      <c r="U30">
+        <v>144</v>
+      </c>
+      <c r="V30">
+        <v>0.61</v>
+      </c>
+      <c r="W30" s="7">
+        <f t="shared" si="0"/>
+        <v>4788</v>
+      </c>
+      <c r="X30" s="7">
+        <f t="shared" si="3"/>
+        <v>22176</v>
+      </c>
+      <c r="Y30" s="7">
+        <f t="shared" si="4"/>
+        <v>17388</v>
+      </c>
+      <c r="Z30" s="9">
+        <f t="shared" si="5"/>
+        <v>0.78409090909090906</v>
+      </c>
+      <c r="AA30" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB30" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC30" s="14">
+        <f t="shared" si="7"/>
+        <v>16.04662431818182</v>
+      </c>
+      <c r="AD30" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>5.1381300000000003</v>
+      </c>
+      <c r="C31">
+        <v>1.4678100000000001</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>46</v>
+      </c>
+      <c r="H31">
+        <v>33</v>
+      </c>
+      <c r="I31">
+        <v>32</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <v>27</v>
+      </c>
+      <c r="L31">
+        <v>40</v>
+      </c>
+      <c r="M31">
+        <v>16</v>
+      </c>
+      <c r="N31">
+        <v>13</v>
+      </c>
+      <c r="O31">
+        <v>13</v>
+      </c>
+      <c r="P31">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>23</v>
+      </c>
+      <c r="R31">
+        <v>14</v>
+      </c>
+      <c r="S31">
+        <v>46</v>
+      </c>
+      <c r="T31">
+        <v>12</v>
+      </c>
+      <c r="U31">
+        <v>192</v>
+      </c>
+      <c r="V31">
+        <v>0.61</v>
+      </c>
+      <c r="W31" s="7">
+        <f t="shared" si="0"/>
+        <v>4608</v>
+      </c>
+      <c r="X31" s="7">
+        <f t="shared" si="3"/>
+        <v>29568</v>
+      </c>
+      <c r="Y31" s="7">
+        <f t="shared" si="4"/>
+        <v>24960</v>
+      </c>
+      <c r="Z31" s="9">
+        <f t="shared" si="5"/>
+        <v>0.8441558441558441</v>
+      </c>
+      <c r="AA31" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB31" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC31" s="14">
+        <f t="shared" si="7"/>
+        <v>17.275868831168832</v>
+      </c>
+      <c r="AD31" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>8.4787300000000005</v>
+      </c>
+      <c r="C32">
+        <v>1.1341699999999999</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>46</v>
+      </c>
+      <c r="H32">
+        <v>33</v>
+      </c>
+      <c r="I32">
+        <v>32</v>
+      </c>
+      <c r="J32">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>27</v>
+      </c>
+      <c r="L32">
+        <v>41</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32">
+        <v>14</v>
+      </c>
+      <c r="O32">
+        <v>13</v>
+      </c>
+      <c r="P32">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>22</v>
+      </c>
+      <c r="R32">
+        <v>14</v>
+      </c>
+      <c r="S32">
+        <v>46</v>
+      </c>
+      <c r="T32">
+        <v>12</v>
+      </c>
+      <c r="U32">
+        <v>298</v>
+      </c>
+      <c r="V32">
+        <v>0.61</v>
+      </c>
+      <c r="W32" s="7">
+        <f t="shared" si="0"/>
+        <v>4704</v>
+      </c>
+      <c r="X32" s="7">
+        <f t="shared" si="3"/>
+        <v>45892</v>
+      </c>
+      <c r="Y32" s="7">
+        <f t="shared" si="4"/>
+        <v>41188</v>
+      </c>
+      <c r="Z32" s="9">
+        <f t="shared" si="5"/>
+        <v>0.89749847467968269</v>
+      </c>
+      <c r="AA32" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB32" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC32" s="14">
+        <f t="shared" si="7"/>
+        <v>18.367539633923126</v>
+      </c>
+      <c r="AD32" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+      <c r="AN32" s="15"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>3.9260600000000001</v>
+      </c>
+      <c r="C33">
+        <v>1.63534</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>23</v>
+      </c>
+      <c r="H33">
+        <v>33</v>
+      </c>
+      <c r="I33">
+        <v>33</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>26</v>
+      </c>
+      <c r="L33">
+        <v>41</v>
+      </c>
+      <c r="M33">
+        <v>16</v>
+      </c>
+      <c r="N33">
+        <v>13</v>
+      </c>
+      <c r="O33">
+        <v>13</v>
+      </c>
+      <c r="P33">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>23</v>
+      </c>
+      <c r="R33">
+        <v>14</v>
+      </c>
+      <c r="S33">
+        <v>46</v>
+      </c>
+      <c r="T33">
+        <v>12</v>
+      </c>
+      <c r="U33">
+        <v>154</v>
+      </c>
+      <c r="V33">
+        <v>0.61</v>
+      </c>
+      <c r="W33" s="7">
+        <f t="shared" si="0"/>
+        <v>4644</v>
+      </c>
+      <c r="X33" s="7">
+        <f t="shared" si="3"/>
+        <v>23716</v>
+      </c>
+      <c r="Y33" s="7">
+        <f t="shared" si="4"/>
+        <v>19072</v>
+      </c>
+      <c r="Z33" s="9">
+        <f t="shared" si="5"/>
+        <v>0.8041828301568561</v>
+      </c>
+      <c r="AA33" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB33" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC33" s="14">
+        <f t="shared" si="7"/>
+        <v>16.457810706695906</v>
+      </c>
+      <c r="AD33" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>8.1666600000000003</v>
+      </c>
+      <c r="C34">
+        <v>1.1600600000000001</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <v>47</v>
+      </c>
+      <c r="H34">
+        <v>33</v>
+      </c>
+      <c r="I34">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>26</v>
+      </c>
+      <c r="L34">
+        <v>43</v>
+      </c>
+      <c r="M34">
+        <v>14</v>
+      </c>
+      <c r="N34">
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <v>17</v>
+      </c>
+      <c r="P34">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>23</v>
+      </c>
+      <c r="R34">
+        <v>14</v>
+      </c>
+      <c r="S34">
+        <v>45</v>
+      </c>
+      <c r="T34">
+        <v>12</v>
+      </c>
+      <c r="U34">
+        <v>288</v>
+      </c>
+      <c r="V34">
+        <v>0.61</v>
+      </c>
+      <c r="W34" s="7">
+        <f t="shared" si="0"/>
+        <v>4680</v>
+      </c>
+      <c r="X34" s="7">
+        <f t="shared" si="3"/>
+        <v>44352</v>
+      </c>
+      <c r="Y34" s="7">
+        <f t="shared" si="4"/>
+        <v>39672</v>
+      </c>
+      <c r="Z34" s="9">
+        <f t="shared" si="5"/>
+        <v>0.89448051948051943</v>
+      </c>
+      <c r="AA34" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB34" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC34" s="14">
+        <f t="shared" si="7"/>
+        <v>18.305776396103898</v>
+      </c>
+      <c r="AD34" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>5.2912800000000004</v>
+      </c>
+      <c r="C35">
+        <v>1.4300200000000001</v>
+      </c>
+      <c r="D35">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>27</v>
+      </c>
+      <c r="F35">
+        <v>25</v>
+      </c>
+      <c r="G35">
+        <v>24</v>
+      </c>
+      <c r="H35">
+        <v>33</v>
+      </c>
+      <c r="I35">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <v>11</v>
+      </c>
+      <c r="K35">
+        <v>27</v>
+      </c>
+      <c r="L35">
+        <v>40</v>
+      </c>
+      <c r="M35">
+        <v>25</v>
+      </c>
+      <c r="N35">
+        <v>13</v>
+      </c>
+      <c r="O35">
+        <v>13</v>
+      </c>
+      <c r="P35">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>23</v>
+      </c>
+      <c r="R35">
+        <v>14</v>
+      </c>
+      <c r="S35">
+        <v>46</v>
+      </c>
+      <c r="T35">
+        <v>12</v>
+      </c>
+      <c r="U35">
+        <v>198</v>
+      </c>
+      <c r="V35">
+        <v>0.61</v>
+      </c>
+      <c r="W35" s="7">
+        <f t="shared" si="0"/>
+        <v>4788</v>
+      </c>
+      <c r="X35" s="7">
+        <f t="shared" si="3"/>
+        <v>30492</v>
+      </c>
+      <c r="Y35" s="7">
+        <f t="shared" si="4"/>
+        <v>25704</v>
+      </c>
+      <c r="Z35" s="9">
+        <f t="shared" si="5"/>
+        <v>0.84297520661157022</v>
+      </c>
+      <c r="AA35" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB35" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC35" s="14">
+        <f t="shared" si="7"/>
+        <v>17.251706776859507</v>
+      </c>
+      <c r="AD35" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>5.25258</v>
+      </c>
+      <c r="C36">
+        <v>1.45201</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+      <c r="E36">
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>24</v>
+      </c>
+      <c r="H36">
+        <v>33</v>
+      </c>
+      <c r="I36">
+        <v>32</v>
+      </c>
+      <c r="J36">
+        <v>11</v>
+      </c>
+      <c r="K36">
+        <v>26</v>
+      </c>
+      <c r="L36">
+        <v>40</v>
+      </c>
+      <c r="M36">
+        <v>16</v>
+      </c>
+      <c r="N36">
+        <v>13</v>
+      </c>
+      <c r="O36">
+        <v>17</v>
+      </c>
+      <c r="P36">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>23</v>
+      </c>
+      <c r="R36">
+        <v>14</v>
+      </c>
+      <c r="S36">
+        <v>46</v>
+      </c>
+      <c r="T36">
+        <v>12</v>
+      </c>
+      <c r="U36">
+        <v>196</v>
+      </c>
+      <c r="V36">
+        <v>0.61</v>
+      </c>
+      <c r="W36" s="7">
+        <f t="shared" si="0"/>
+        <v>4668</v>
+      </c>
+      <c r="X36" s="7">
+        <f t="shared" si="3"/>
+        <v>30184</v>
+      </c>
+      <c r="Y36" s="7">
+        <f t="shared" si="4"/>
+        <v>25516</v>
+      </c>
+      <c r="Z36" s="9">
+        <f t="shared" si="5"/>
+        <v>0.84534852902199842</v>
+      </c>
+      <c r="AA36" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB36" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC36" s="14">
+        <f t="shared" si="7"/>
+        <v>17.300277437052745</v>
+      </c>
+      <c r="AD36" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>6.6523899999999996</v>
+      </c>
+      <c r="C37">
+        <v>1.29498</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>47</v>
+      </c>
+      <c r="H37">
+        <v>33</v>
+      </c>
+      <c r="I37">
+        <v>32</v>
+      </c>
+      <c r="J37">
+        <v>11</v>
+      </c>
+      <c r="K37">
+        <v>26</v>
+      </c>
+      <c r="L37">
+        <v>40</v>
+      </c>
+      <c r="M37">
+        <v>15</v>
+      </c>
+      <c r="N37">
+        <v>14</v>
+      </c>
+      <c r="O37">
+        <v>13</v>
+      </c>
+      <c r="P37">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>23</v>
+      </c>
+      <c r="R37">
+        <v>14</v>
+      </c>
+      <c r="S37">
+        <v>46</v>
+      </c>
+      <c r="T37">
+        <v>12</v>
+      </c>
+      <c r="U37">
+        <v>240</v>
+      </c>
+      <c r="V37">
+        <v>0.61</v>
+      </c>
+      <c r="W37" s="7">
+        <f t="shared" si="0"/>
+        <v>4644</v>
+      </c>
+      <c r="X37" s="7">
+        <f t="shared" si="3"/>
+        <v>36960</v>
+      </c>
+      <c r="Y37" s="7">
+        <f t="shared" si="4"/>
+        <v>32316</v>
+      </c>
+      <c r="Z37" s="9">
+        <f t="shared" si="5"/>
+        <v>0.87435064935064932</v>
+      </c>
+      <c r="AA37" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB37" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC37" s="14">
+        <f t="shared" si="7"/>
+        <v>17.893813370129873</v>
+      </c>
+      <c r="AD37" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="B38">
+        <v>7.5548599999999997</v>
+      </c>
+      <c r="C38">
+        <v>1.2233400000000001</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <v>33</v>
+      </c>
+      <c r="I38">
+        <v>33</v>
+      </c>
+      <c r="J38">
+        <v>11</v>
+      </c>
+      <c r="K38">
+        <v>27</v>
+      </c>
+      <c r="L38">
+        <v>40</v>
+      </c>
+      <c r="M38">
+        <v>14</v>
+      </c>
+      <c r="N38">
+        <v>13</v>
+      </c>
+      <c r="O38">
+        <v>11</v>
+      </c>
+      <c r="P38">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>23</v>
+      </c>
+      <c r="R38">
+        <v>14</v>
+      </c>
+      <c r="S38">
+        <v>46</v>
+      </c>
+      <c r="T38">
+        <v>12</v>
+      </c>
+      <c r="U38">
+        <v>268</v>
+      </c>
+      <c r="V38">
+        <v>0.61</v>
+      </c>
+      <c r="W38" s="7">
+        <f t="shared" si="0"/>
+        <v>4572</v>
+      </c>
+      <c r="X38" s="7">
+        <f t="shared" si="3"/>
+        <v>41272</v>
+      </c>
+      <c r="Y38" s="7">
+        <f t="shared" si="4"/>
+        <v>36700</v>
+      </c>
+      <c r="Z38" s="9">
+        <f t="shared" si="5"/>
+        <v>0.88922271758092652</v>
+      </c>
+      <c r="AA38" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB38" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC38" s="14">
+        <f t="shared" si="7"/>
+        <v>18.198174113200235</v>
+      </c>
+      <c r="AD38" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>5.8816699999999997</v>
+      </c>
+      <c r="C39">
+        <v>1.37632</v>
+      </c>
+      <c r="D39">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <v>27</v>
+      </c>
+      <c r="F39">
+        <v>25</v>
+      </c>
+      <c r="G39">
+        <v>24</v>
+      </c>
+      <c r="H39">
+        <v>33</v>
+      </c>
+      <c r="I39">
+        <v>32</v>
+      </c>
+      <c r="J39">
+        <v>11</v>
+      </c>
+      <c r="K39">
+        <v>27</v>
+      </c>
+      <c r="L39">
+        <v>40</v>
+      </c>
+      <c r="M39">
+        <v>25</v>
+      </c>
+      <c r="N39">
+        <v>13</v>
+      </c>
+      <c r="O39">
+        <v>13</v>
+      </c>
+      <c r="P39">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>23</v>
+      </c>
+      <c r="R39">
+        <v>14</v>
+      </c>
+      <c r="S39">
+        <v>46</v>
+      </c>
+      <c r="T39">
+        <v>12</v>
+      </c>
+      <c r="U39">
+        <v>216</v>
+      </c>
+      <c r="V39">
+        <v>0.61</v>
+      </c>
+      <c r="W39" s="7">
+        <f t="shared" si="0"/>
+        <v>4692</v>
+      </c>
+      <c r="X39" s="7">
+        <f t="shared" si="3"/>
+        <v>33264</v>
+      </c>
+      <c r="Y39" s="7">
+        <f t="shared" si="4"/>
+        <v>28572</v>
+      </c>
+      <c r="Z39" s="9">
+        <f t="shared" si="5"/>
+        <v>0.8589466089466089</v>
+      </c>
+      <c r="AA39" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB39" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC39" s="14">
+        <f t="shared" si="7"/>
+        <v>17.57856567821068</v>
+      </c>
+      <c r="AD39" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>6.6211000000000002</v>
+      </c>
+      <c r="C40">
+        <v>1.3227</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>19</v>
+      </c>
+      <c r="F40">
+        <v>25</v>
+      </c>
+      <c r="G40">
+        <v>46</v>
+      </c>
+      <c r="H40">
+        <v>22</v>
+      </c>
+      <c r="I40">
+        <v>31</v>
+      </c>
+      <c r="J40">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <v>26</v>
+      </c>
+      <c r="L40">
+        <v>40</v>
+      </c>
+      <c r="M40">
+        <v>15</v>
+      </c>
+      <c r="N40">
+        <v>13</v>
+      </c>
+      <c r="O40">
+        <v>13</v>
+      </c>
+      <c r="P40">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>23</v>
+      </c>
+      <c r="R40">
+        <v>14</v>
+      </c>
+      <c r="S40">
+        <v>46</v>
+      </c>
+      <c r="T40">
+        <v>12</v>
+      </c>
+      <c r="U40">
+        <v>238</v>
+      </c>
+      <c r="V40">
+        <v>0.61</v>
+      </c>
+      <c r="W40" s="7">
+        <f t="shared" si="0"/>
+        <v>4488</v>
+      </c>
+      <c r="X40" s="7">
+        <f t="shared" si="3"/>
+        <v>36652</v>
+      </c>
+      <c r="Y40" s="7">
+        <f t="shared" si="4"/>
+        <v>32164</v>
+      </c>
+      <c r="Z40" s="9">
+        <f t="shared" si="5"/>
+        <v>0.87755102040816324</v>
+      </c>
+      <c r="AA40" s="18">
+        <f t="shared" si="6"/>
+        <v>1.821721E-6</v>
+      </c>
+      <c r="AB40" s="10">
+        <f t="shared" si="1"/>
+        <v>20.465260000000004</v>
+      </c>
+      <c r="AC40" s="14">
+        <f t="shared" si="7"/>
+        <v>17.959309795918372</v>
+      </c>
+      <c r="AD40" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>cumple</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B41" s="17"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B42" s="17"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B43" s="17"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B44" s="17"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B45" s="17"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B46" s="17"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="B47" s="17"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEB4002-EAB5-47D1-A99C-8D5F0A70F551}">
   <dimension ref="A1:AM65"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="O17" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10:Z45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7969,7 +12849,7 @@
       <c r="A1" s="3"/>
       <c r="D1" s="3"/>
       <c r="I1" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -11847,12 +16727,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36708B6C-0923-4AB6-9FBF-AC8603301078}">
   <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11875,7 +16755,7 @@
       <c r="A1" s="3"/>
       <c r="D1" s="3"/>
       <c r="I1" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -11951,7 +16831,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="11" t="s">
@@ -11981,7 +16861,7 @@
       </c>
       <c r="C5" s="4">
         <f>C2*C4</f>
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="11" t="s">
@@ -12010,7 +16890,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="1">
-        <v>22626</v>
+        <v>15789</v>
       </c>
       <c r="D6" s="3"/>
       <c r="I6" s="25"/>
@@ -12032,7 +16912,7 @@
       </c>
       <c r="C7" s="4">
         <f>C6/(60*60)</f>
-        <v>6.2850000000000001</v>
+        <v>4.3858333333333333</v>
       </c>
       <c r="D7" s="3"/>
       <c r="I7" s="25"/>
@@ -12168,58 +17048,58 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>8.2349999999999994</v>
+        <v>8.3511000000000006</v>
       </c>
       <c r="C10">
-        <v>1.15663</v>
+        <v>1.18</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>29</v>
       </c>
       <c r="J10">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O10">
         <v>11</v>
       </c>
-      <c r="P10">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>23</v>
+      <c r="P10" s="3">
+        <v>44</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
       </c>
       <c r="R10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="S10">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="T10">
         <v>12</v>
@@ -12227,12 +17107,12 @@
       <c r="U10">
         <v>290</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="7">
         <v>0.61</v>
       </c>
-      <c r="W10" s="7">
-        <f t="shared" ref="W10:W40" si="0">SUM(D10:S10)*T10</f>
-        <v>4656</v>
+      <c r="W10" s="24">
+        <f>SUM(D10:S10)*T10</f>
+        <v>4092</v>
       </c>
       <c r="X10" s="7">
         <f>$F$2*U10</f>
@@ -12240,26 +17120,26 @@
       </c>
       <c r="Y10" s="7">
         <f>X10-W10</f>
-        <v>40004</v>
+        <v>40568</v>
       </c>
       <c r="Z10" s="9">
         <f>Y10/X10</f>
-        <v>0.89574563367666815</v>
+        <v>0.90837438423645323</v>
       </c>
       <c r="AA10" s="18">
         <f>0.0000020841*V10+0.00000055042</f>
         <v>1.821721E-6</v>
       </c>
       <c r="AB10" s="10">
-        <f t="shared" ref="AB10:AB40" si="1">76.766*V10-26.362</f>
+        <f t="shared" ref="AB10:AB40" si="0">76.766*V10-26.362</f>
         <v>20.465260000000004</v>
       </c>
       <c r="AC10" s="14">
         <f>AB10*Z10</f>
-        <v>18.331667287057773</v>
+        <v>18.590117950738922</v>
       </c>
       <c r="AD10" s="10" t="str">
-        <f t="shared" ref="AD10:AD40" si="2">IF(AC10&gt;=$F$4,"cumple","no cumple")</f>
+        <f t="shared" ref="AD10:AD40" si="1">IF(AC10&gt;=$F$4,"cumple","no cumple")</f>
         <v>cumple</v>
       </c>
       <c r="AM10" s="15"/>
@@ -12270,98 +17150,98 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>7.0155200000000004</v>
+        <v>3.9559099999999998</v>
       </c>
       <c r="C11">
-        <v>1.25088</v>
+        <v>1.6879</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>24</v>
       </c>
       <c r="G11">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I11">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
         <v>11</v>
       </c>
-      <c r="K11">
-        <v>26</v>
-      </c>
       <c r="L11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O11">
         <v>13</v>
       </c>
-      <c r="P11">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="3">
+      <c r="P11" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q11">
         <v>23</v>
       </c>
       <c r="R11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S11">
-        <v>46</v>
-      </c>
-      <c r="T11" s="12">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="T11">
+        <v>11</v>
       </c>
       <c r="U11">
-        <v>252</v>
-      </c>
-      <c r="V11">
+        <v>150</v>
+      </c>
+      <c r="V11" s="7">
         <v>0.61</v>
       </c>
-      <c r="W11" s="7">
-        <f t="shared" si="0"/>
-        <v>4728</v>
+      <c r="W11" s="24">
+        <f t="shared" ref="W11:W40" si="2">SUM(D11:S11)*T11</f>
+        <v>3883</v>
       </c>
       <c r="X11" s="7">
-        <f t="shared" ref="X11:X40" si="3">$F$2*U11</f>
-        <v>38808</v>
+        <f t="shared" ref="X11:X45" si="3">$F$2*U11</f>
+        <v>23100</v>
       </c>
       <c r="Y11" s="7">
-        <f t="shared" ref="Y11:Y40" si="4">X11-W11</f>
-        <v>34080</v>
+        <f t="shared" ref="Y11:Y45" si="4">X11-W11</f>
+        <v>19217</v>
       </c>
       <c r="Z11" s="9">
-        <f t="shared" ref="Z11:Z40" si="5">Y11/X11</f>
-        <v>0.87816944959802101</v>
+        <f t="shared" ref="Z11:Z45" si="5">Y11/X11</f>
+        <v>0.83190476190476192</v>
       </c>
       <c r="AA11" s="18">
         <f t="shared" ref="AA11:AA40" si="6">0.0000020841*V11+0.00000055042</f>
         <v>1.821721E-6</v>
       </c>
       <c r="AB11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.465260000000004</v>
       </c>
       <c r="AC11" s="14">
         <f t="shared" ref="AC11:AC40" si="7">AB11*Z11</f>
-        <v>17.971966110080398</v>
+        <v>17.025147247619053</v>
       </c>
       <c r="AD11" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cumple</v>
       </c>
       <c r="AM11" s="15"/>
@@ -12372,22 +17252,22 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>8.2909900000000007</v>
+        <v>7.35724</v>
       </c>
       <c r="C12">
-        <v>1.14828</v>
+        <v>1.32213</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E12">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>33</v>
@@ -12396,74 +17276,74 @@
         <v>29</v>
       </c>
       <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>27</v>
+      </c>
+      <c r="L12">
+        <v>19</v>
+      </c>
+      <c r="M12">
+        <v>25</v>
+      </c>
+      <c r="N12">
+        <v>14</v>
+      </c>
+      <c r="O12">
         <v>11</v>
       </c>
-      <c r="K12">
-        <v>31</v>
-      </c>
-      <c r="L12">
-        <v>40</v>
-      </c>
-      <c r="M12">
-        <v>16</v>
-      </c>
-      <c r="N12">
-        <v>13</v>
-      </c>
-      <c r="O12">
-        <v>13</v>
-      </c>
-      <c r="P12">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>23</v>
+      <c r="P12" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q12">
+        <v>15</v>
       </c>
       <c r="R12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S12">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="T12">
         <v>12</v>
       </c>
       <c r="U12">
-        <v>292</v>
-      </c>
-      <c r="V12">
+        <v>256</v>
+      </c>
+      <c r="V12" s="7">
         <v>0.61</v>
       </c>
-      <c r="W12" s="7">
-        <f t="shared" si="0"/>
-        <v>4692</v>
+      <c r="W12" s="24">
+        <f t="shared" si="2"/>
+        <v>3684</v>
       </c>
       <c r="X12" s="7">
         <f t="shared" si="3"/>
-        <v>44968</v>
+        <v>39424</v>
       </c>
       <c r="Y12" s="7">
         <f t="shared" si="4"/>
-        <v>40276</v>
+        <v>35740</v>
       </c>
       <c r="Z12" s="9">
         <f t="shared" si="5"/>
-        <v>0.89565913538516273</v>
+        <v>0.90655438311688308</v>
       </c>
       <c r="AA12" s="18">
         <f t="shared" si="6"/>
         <v>1.821721E-6</v>
       </c>
       <c r="AB12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.465260000000004</v>
       </c>
       <c r="AC12" s="14">
         <f t="shared" si="7"/>
-        <v>18.329897077032559</v>
+        <v>18.552871154626626</v>
       </c>
       <c r="AD12" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cumple</v>
       </c>
       <c r="AM12" s="15"/>
@@ -12474,28 +17354,28 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>4.3770800000000003</v>
+        <v>4.32029</v>
       </c>
       <c r="C13">
-        <v>1.55674</v>
+        <v>1.6471899999999999</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>25</v>
       </c>
       <c r="G13">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>22</v>
       </c>
       <c r="I13">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="J13">
         <v>11</v>
@@ -12507,7 +17387,7 @@
         <v>40</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>13</v>
@@ -12515,10 +17395,10 @@
       <c r="O13">
         <v>13</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="3">
         <v>19</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13">
         <v>23</v>
       </c>
       <c r="R13">
@@ -12531,41 +17411,41 @@
         <v>11</v>
       </c>
       <c r="U13">
-        <v>166</v>
-      </c>
-      <c r="V13">
-        <v>0.61</v>
-      </c>
-      <c r="W13" s="7">
-        <f t="shared" si="0"/>
-        <v>4301</v>
+        <v>162</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="W13" s="24">
+        <f t="shared" si="2"/>
+        <v>3718</v>
       </c>
       <c r="X13" s="7">
         <f t="shared" si="3"/>
-        <v>25564</v>
+        <v>24948</v>
       </c>
       <c r="Y13" s="7">
         <f t="shared" si="4"/>
-        <v>21263</v>
+        <v>21230</v>
       </c>
       <c r="Z13" s="9">
         <f t="shared" si="5"/>
-        <v>0.83175559380378661</v>
+        <v>0.85097001763668434</v>
       </c>
       <c r="AA13" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>1.8008800000000001E-6</v>
       </c>
       <c r="AB13" s="10">
-        <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
+        <f t="shared" si="0"/>
+        <v>19.697600000000005</v>
       </c>
       <c r="AC13" s="14">
         <f t="shared" si="7"/>
-        <v>17.022094483648885</v>
+        <v>16.762067019400359</v>
       </c>
       <c r="AD13" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cumple</v>
       </c>
       <c r="AM13" s="15"/>
@@ -12576,98 +17456,98 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>6.8302500000000004</v>
+        <v>8.4046299999999992</v>
       </c>
       <c r="C14">
-        <v>1.2706900000000001</v>
+        <v>1.1791499999999999</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>25</v>
       </c>
       <c r="G14">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J14">
         <v>11</v>
       </c>
       <c r="K14">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O14">
         <v>13</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="3">
         <v>19</v>
       </c>
-      <c r="Q14" s="3">
-        <v>22</v>
+      <c r="Q14">
+        <v>23</v>
       </c>
       <c r="R14">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="S14">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="T14">
         <v>12</v>
       </c>
       <c r="U14">
-        <v>246</v>
-      </c>
-      <c r="V14">
+        <v>292</v>
+      </c>
+      <c r="V14" s="7">
         <v>0.61</v>
       </c>
-      <c r="W14" s="7">
-        <f t="shared" si="0"/>
-        <v>4704</v>
+      <c r="W14" s="24">
+        <f t="shared" si="2"/>
+        <v>4140</v>
       </c>
       <c r="X14" s="7">
         <f t="shared" si="3"/>
-        <v>37884</v>
+        <v>44968</v>
       </c>
       <c r="Y14" s="7">
         <f t="shared" si="4"/>
-        <v>33180</v>
+        <v>40828</v>
       </c>
       <c r="Z14" s="9">
         <f t="shared" si="5"/>
-        <v>0.87583148558758317</v>
+        <v>0.90793453122220247</v>
       </c>
       <c r="AA14" s="18">
         <f t="shared" si="6"/>
         <v>1.821721E-6</v>
       </c>
       <c r="AB14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.465260000000004</v>
       </c>
       <c r="AC14" s="14">
         <f t="shared" si="7"/>
-        <v>17.924119068736147</v>
+        <v>18.581116244440494</v>
       </c>
       <c r="AD14" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>cumple</v>
       </c>
       <c r="AM14" s="15"/>
@@ -12677,100 +17557,38 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B15">
-        <v>7.1349200000000002</v>
-      </c>
-      <c r="C15">
-        <v>1.2358</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-      <c r="F15">
-        <v>25</v>
-      </c>
-      <c r="G15">
-        <v>46</v>
-      </c>
-      <c r="H15">
-        <v>33</v>
-      </c>
-      <c r="I15">
-        <v>32</v>
-      </c>
-      <c r="J15">
-        <v>11</v>
-      </c>
-      <c r="K15">
-        <v>27</v>
-      </c>
-      <c r="L15">
-        <v>41</v>
-      </c>
-      <c r="M15">
-        <v>25</v>
-      </c>
-      <c r="N15">
-        <v>14</v>
-      </c>
-      <c r="O15">
-        <v>13</v>
-      </c>
-      <c r="P15">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>23</v>
-      </c>
-      <c r="R15">
-        <v>14</v>
-      </c>
-      <c r="S15">
-        <v>46</v>
-      </c>
-      <c r="T15">
-        <v>12</v>
-      </c>
-      <c r="U15">
-        <v>256</v>
-      </c>
-      <c r="V15">
-        <v>0.61</v>
-      </c>
-      <c r="W15" s="7">
-        <f t="shared" si="0"/>
-        <v>4764</v>
+      <c r="Q15" s="3"/>
+      <c r="W15" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X15" s="7">
         <f t="shared" si="3"/>
-        <v>39424</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="7">
         <f t="shared" si="4"/>
-        <v>34660</v>
-      </c>
-      <c r="Z15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.87915990259740262</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA15" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB15" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC15" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD15" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC15" s="14">
-        <f t="shared" si="7"/>
-        <v>17.992235988230522</v>
-      </c>
-      <c r="AD15" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM15" s="15"/>
     </row>
@@ -12779,100 +17597,38 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B16">
-        <v>7.0739799999999997</v>
-      </c>
-      <c r="C16">
-        <v>1.24356</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>24</v>
-      </c>
-      <c r="G16">
-        <v>47</v>
-      </c>
-      <c r="H16">
-        <v>33</v>
-      </c>
-      <c r="I16">
-        <v>32</v>
-      </c>
-      <c r="J16">
-        <v>11</v>
-      </c>
-      <c r="K16">
-        <v>26</v>
-      </c>
-      <c r="L16">
-        <v>41</v>
-      </c>
-      <c r="M16">
-        <v>25</v>
-      </c>
-      <c r="N16">
-        <v>14</v>
-      </c>
-      <c r="O16">
-        <v>13</v>
-      </c>
-      <c r="P16">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>23</v>
-      </c>
-      <c r="R16">
-        <v>14</v>
-      </c>
-      <c r="S16">
-        <v>46</v>
-      </c>
-      <c r="T16">
-        <v>12</v>
-      </c>
-      <c r="U16">
-        <v>254</v>
-      </c>
-      <c r="V16">
-        <v>0.61</v>
-      </c>
-      <c r="W16" s="7">
-        <f t="shared" si="0"/>
-        <v>4752</v>
+      <c r="Q16" s="3"/>
+      <c r="W16" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X16" s="7">
         <f t="shared" si="3"/>
-        <v>39116</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="7">
         <f t="shared" si="4"/>
-        <v>34364</v>
-      </c>
-      <c r="Z16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.87851518560179975</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA16" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB16" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC16" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD16" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC16" s="14">
-        <f t="shared" si="7"/>
-        <v>17.979041687289094</v>
-      </c>
-      <c r="AD16" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM16" s="15"/>
     </row>
@@ -12881,100 +17637,38 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="B17">
-        <v>6.8986000000000001</v>
-      </c>
-      <c r="C17">
-        <v>1.2688900000000001</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>19</v>
-      </c>
-      <c r="F17">
-        <v>25</v>
-      </c>
-      <c r="G17">
-        <v>46</v>
-      </c>
-      <c r="H17">
-        <v>33</v>
-      </c>
-      <c r="I17">
-        <v>32</v>
-      </c>
-      <c r="J17">
-        <v>11</v>
-      </c>
-      <c r="K17">
-        <v>26</v>
-      </c>
-      <c r="L17">
-        <v>41</v>
-      </c>
-      <c r="M17">
-        <v>14</v>
-      </c>
-      <c r="N17">
-        <v>14</v>
-      </c>
-      <c r="O17">
-        <v>17</v>
-      </c>
-      <c r="P17">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>23</v>
-      </c>
-      <c r="R17">
-        <v>14</v>
-      </c>
-      <c r="S17">
-        <v>46</v>
-      </c>
-      <c r="T17">
-        <v>12</v>
-      </c>
-      <c r="U17">
-        <v>248</v>
-      </c>
-      <c r="V17">
-        <v>0.61</v>
-      </c>
-      <c r="W17" s="7">
-        <f t="shared" si="0"/>
-        <v>4680</v>
+      <c r="Q17" s="3"/>
+      <c r="W17" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X17" s="7">
         <f t="shared" si="3"/>
-        <v>38192</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="7">
         <f t="shared" si="4"/>
-        <v>33512</v>
-      </c>
-      <c r="Z17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.87746124842899031</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA17" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB17" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC17" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD17" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC17" s="14">
-        <f t="shared" si="7"/>
-        <v>17.957472589023883</v>
-      </c>
-      <c r="AD17" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM17" s="15"/>
     </row>
@@ -12983,100 +17677,38 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B18">
-        <v>8.4713200000000004</v>
-      </c>
-      <c r="C18">
-        <v>1.1342000000000001</v>
-      </c>
-      <c r="D18">
-        <v>11</v>
-      </c>
-      <c r="E18">
-        <v>38</v>
-      </c>
-      <c r="F18">
-        <v>25</v>
-      </c>
-      <c r="G18">
-        <v>25</v>
-      </c>
-      <c r="H18">
-        <v>33</v>
-      </c>
-      <c r="I18">
-        <v>32</v>
-      </c>
-      <c r="J18">
-        <v>11</v>
-      </c>
-      <c r="K18">
-        <v>27</v>
-      </c>
-      <c r="L18">
-        <v>40</v>
-      </c>
-      <c r="M18">
-        <v>25</v>
-      </c>
-      <c r="N18">
-        <v>13</v>
-      </c>
-      <c r="O18">
-        <v>13</v>
-      </c>
-      <c r="P18">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>23</v>
-      </c>
-      <c r="R18">
-        <v>14</v>
-      </c>
-      <c r="S18">
-        <v>46</v>
-      </c>
-      <c r="T18">
-        <v>12</v>
-      </c>
-      <c r="U18">
-        <v>298</v>
-      </c>
-      <c r="V18">
-        <v>0.61</v>
-      </c>
-      <c r="W18" s="7">
-        <f t="shared" si="0"/>
-        <v>4740</v>
+      <c r="Q18" s="3"/>
+      <c r="W18" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X18" s="7">
         <f t="shared" si="3"/>
-        <v>45892</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="7">
         <f t="shared" si="4"/>
-        <v>41152</v>
-      </c>
-      <c r="Z18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.89671402423080271</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA18" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB18" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC18" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD18" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC18" s="14">
-        <f t="shared" si="7"/>
-        <v>18.351485651529682</v>
-      </c>
-      <c r="AD18" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AM18" s="15"/>
     </row>
@@ -13085,100 +17717,38 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="B19">
-        <v>5.3620999999999999</v>
-      </c>
-      <c r="C19">
-        <v>1.42259</v>
-      </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>38</v>
-      </c>
-      <c r="F19">
-        <v>25</v>
-      </c>
-      <c r="G19">
-        <v>25</v>
-      </c>
-      <c r="H19">
-        <v>33</v>
-      </c>
-      <c r="I19">
-        <v>32</v>
-      </c>
-      <c r="J19">
-        <v>11</v>
-      </c>
-      <c r="K19">
-        <v>27</v>
-      </c>
-      <c r="L19">
-        <v>41</v>
-      </c>
-      <c r="M19">
-        <v>25</v>
-      </c>
-      <c r="N19">
-        <v>13</v>
-      </c>
-      <c r="O19">
-        <v>13</v>
-      </c>
-      <c r="P19">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>23</v>
-      </c>
-      <c r="R19">
-        <v>14</v>
-      </c>
-      <c r="S19">
-        <v>46</v>
-      </c>
-      <c r="T19">
-        <v>12</v>
-      </c>
-      <c r="U19">
-        <v>200</v>
-      </c>
-      <c r="V19">
-        <v>0.61</v>
-      </c>
-      <c r="W19" s="7">
-        <f t="shared" si="0"/>
-        <v>4752</v>
+      <c r="Q19" s="3"/>
+      <c r="W19" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X19" s="7">
         <f t="shared" si="3"/>
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="7">
         <f t="shared" si="4"/>
-        <v>26048</v>
-      </c>
-      <c r="Z19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.84571428571428575</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA19" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB19" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC19" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD19" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC19" s="14">
-        <f t="shared" si="7"/>
-        <v>17.307762742857147</v>
-      </c>
-      <c r="AD19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
@@ -13186,100 +17756,38 @@
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="B20">
-        <v>8.3395799999999998</v>
-      </c>
-      <c r="C20">
-        <v>1.14009</v>
-      </c>
-      <c r="D20">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>39</v>
-      </c>
-      <c r="F20">
-        <v>25</v>
-      </c>
-      <c r="G20">
-        <v>14</v>
-      </c>
-      <c r="H20">
-        <v>33</v>
-      </c>
-      <c r="I20">
-        <v>32</v>
-      </c>
-      <c r="J20">
-        <v>11</v>
-      </c>
-      <c r="K20">
-        <v>26</v>
-      </c>
-      <c r="L20">
-        <v>40</v>
-      </c>
-      <c r="M20">
-        <v>25</v>
-      </c>
-      <c r="N20">
-        <v>13</v>
-      </c>
-      <c r="O20">
-        <v>13</v>
-      </c>
-      <c r="P20">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>23</v>
-      </c>
-      <c r="R20">
-        <v>14</v>
-      </c>
-      <c r="S20">
-        <v>46</v>
-      </c>
-      <c r="T20">
-        <v>12</v>
-      </c>
-      <c r="U20">
-        <v>294</v>
-      </c>
-      <c r="V20">
-        <v>0.61</v>
-      </c>
-      <c r="W20" s="7">
-        <f t="shared" si="0"/>
-        <v>4764</v>
+      <c r="Q20" s="3"/>
+      <c r="W20" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X20" s="7">
         <f t="shared" si="3"/>
-        <v>45276</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="7">
         <f t="shared" si="4"/>
-        <v>40512</v>
-      </c>
-      <c r="Z20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.89477869069705807</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA20" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB20" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC20" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD20" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC20" s="14">
-        <f t="shared" si="7"/>
-        <v>18.311878547574878</v>
-      </c>
-      <c r="AD20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
@@ -13287,100 +17795,38 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="B21">
-        <v>5.20153</v>
-      </c>
-      <c r="C21">
-        <v>1.4655499999999999</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>38</v>
-      </c>
-      <c r="F21">
-        <v>24</v>
-      </c>
-      <c r="G21">
-        <v>24</v>
-      </c>
-      <c r="H21">
-        <v>33</v>
-      </c>
-      <c r="I21">
-        <v>32</v>
-      </c>
-      <c r="J21">
-        <v>11</v>
-      </c>
-      <c r="K21">
-        <v>25</v>
-      </c>
-      <c r="L21">
-        <v>40</v>
-      </c>
-      <c r="M21">
-        <v>16</v>
-      </c>
-      <c r="N21">
-        <v>13</v>
-      </c>
-      <c r="O21">
-        <v>13</v>
-      </c>
-      <c r="P21">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>23</v>
-      </c>
-      <c r="R21">
-        <v>14</v>
-      </c>
-      <c r="S21">
-        <v>46</v>
-      </c>
-      <c r="T21">
-        <v>12</v>
-      </c>
-      <c r="U21">
-        <v>194</v>
-      </c>
-      <c r="V21">
-        <v>0.61</v>
-      </c>
-      <c r="W21" s="7">
-        <f t="shared" si="0"/>
-        <v>4608</v>
+      <c r="Q21" s="3"/>
+      <c r="W21" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X21" s="7">
         <f t="shared" si="3"/>
-        <v>29876</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="7">
         <f t="shared" si="4"/>
-        <v>25268</v>
-      </c>
-      <c r="Z21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.84576248493774264</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA21" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB21" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC21" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD21" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC21" s="14">
-        <f t="shared" si="7"/>
-        <v>17.30874915249699</v>
-      </c>
-      <c r="AD21" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.35">
@@ -13388,100 +17834,38 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="B22">
-        <v>4.3040099999999999</v>
-      </c>
-      <c r="C22">
-        <v>1.5738300000000001</v>
-      </c>
-      <c r="D22">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>27</v>
-      </c>
-      <c r="F22">
-        <v>24</v>
-      </c>
-      <c r="G22">
-        <v>25</v>
-      </c>
-      <c r="H22">
-        <v>33</v>
-      </c>
-      <c r="I22">
-        <v>29</v>
-      </c>
-      <c r="J22">
-        <v>11</v>
-      </c>
-      <c r="K22">
-        <v>31</v>
-      </c>
-      <c r="L22">
-        <v>40</v>
-      </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-      <c r="N22">
-        <v>13</v>
-      </c>
-      <c r="O22">
-        <v>11</v>
-      </c>
-      <c r="P22">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>23</v>
-      </c>
-      <c r="R22">
-        <v>14</v>
-      </c>
-      <c r="S22">
-        <v>53</v>
-      </c>
-      <c r="T22">
-        <v>12</v>
-      </c>
-      <c r="U22">
-        <v>166</v>
-      </c>
-      <c r="V22">
-        <v>0.61</v>
-      </c>
-      <c r="W22" s="7">
-        <f t="shared" si="0"/>
-        <v>4656</v>
+      <c r="Q22" s="3"/>
+      <c r="W22" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X22" s="7">
         <f t="shared" si="3"/>
-        <v>25564</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="7">
         <f t="shared" si="4"/>
-        <v>20908</v>
-      </c>
-      <c r="Z22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.81786887810984199</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA22" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB22" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC22" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD22" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC22" s="14">
-        <f t="shared" si="7"/>
-        <v>16.737899236426227</v>
-      </c>
-      <c r="AD22" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.35">
@@ -13489,100 +17873,38 @@
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="B23">
-        <v>7.92293</v>
-      </c>
-      <c r="C23">
-        <v>1.1830400000000001</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>13</v>
-      </c>
-      <c r="F23">
-        <v>25</v>
-      </c>
-      <c r="G23">
-        <v>48</v>
-      </c>
-      <c r="H23">
-        <v>33</v>
-      </c>
-      <c r="I23">
-        <v>32</v>
-      </c>
-      <c r="J23">
-        <v>11</v>
-      </c>
-      <c r="K23">
-        <v>27</v>
-      </c>
-      <c r="L23">
-        <v>43</v>
-      </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>14</v>
-      </c>
-      <c r="O23">
-        <v>13</v>
-      </c>
-      <c r="P23">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>23</v>
-      </c>
-      <c r="R23">
-        <v>14</v>
-      </c>
-      <c r="S23">
-        <v>45</v>
-      </c>
-      <c r="T23">
-        <v>12</v>
-      </c>
-      <c r="U23">
-        <v>280</v>
-      </c>
-      <c r="V23">
-        <v>0.61</v>
-      </c>
-      <c r="W23" s="7">
-        <f t="shared" si="0"/>
-        <v>4632</v>
+      <c r="Q23" s="3"/>
+      <c r="W23" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X23" s="7">
         <f t="shared" si="3"/>
-        <v>43120</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="7">
         <f t="shared" si="4"/>
-        <v>38488</v>
-      </c>
-      <c r="Z23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.89257884972170687</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA23" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB23" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC23" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD23" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC23" s="14">
-        <f t="shared" si="7"/>
-        <v>18.266858230055661</v>
-      </c>
-      <c r="AD23" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
@@ -13590,100 +17912,38 @@
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="B24">
-        <v>3.5283500000000001</v>
-      </c>
-      <c r="C24">
-        <v>1.6755</v>
-      </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="F24">
-        <v>24</v>
-      </c>
-      <c r="G24">
-        <v>46</v>
-      </c>
-      <c r="H24">
-        <v>35</v>
-      </c>
-      <c r="I24">
-        <v>32</v>
-      </c>
-      <c r="J24">
-        <v>11</v>
-      </c>
-      <c r="K24">
-        <v>26</v>
-      </c>
-      <c r="L24">
-        <v>41</v>
-      </c>
-      <c r="M24">
-        <v>25</v>
-      </c>
-      <c r="N24">
-        <v>14</v>
-      </c>
-      <c r="O24">
-        <v>13</v>
-      </c>
-      <c r="P24">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>23</v>
-      </c>
-      <c r="R24">
-        <v>14</v>
-      </c>
-      <c r="S24">
-        <v>46</v>
-      </c>
-      <c r="T24">
-        <v>12</v>
-      </c>
-      <c r="U24">
-        <v>142</v>
-      </c>
-      <c r="V24">
-        <v>0.61</v>
-      </c>
-      <c r="W24" s="7">
-        <f t="shared" si="0"/>
-        <v>4728</v>
+      <c r="Q24" s="3"/>
+      <c r="W24" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X24" s="7">
         <f t="shared" si="3"/>
-        <v>21868</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="7">
         <f t="shared" si="4"/>
-        <v>17140</v>
-      </c>
-      <c r="Z24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.78379367111761478</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA24" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB24" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD24" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC24" s="14">
-        <f t="shared" si="7"/>
-        <v>16.040541265776479</v>
-      </c>
-      <c r="AD24" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
@@ -13691,100 +17951,38 @@
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="B25">
-        <v>3.97464</v>
-      </c>
-      <c r="C25">
-        <v>1.57934</v>
-      </c>
-      <c r="D25">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>15</v>
-      </c>
-      <c r="F25">
-        <v>25</v>
-      </c>
-      <c r="G25">
-        <v>48</v>
-      </c>
-      <c r="H25">
-        <v>22</v>
-      </c>
-      <c r="I25">
-        <v>60</v>
-      </c>
-      <c r="J25">
-        <v>11</v>
-      </c>
-      <c r="K25">
-        <v>11</v>
-      </c>
-      <c r="L25">
-        <v>40</v>
-      </c>
-      <c r="M25">
-        <v>16</v>
-      </c>
-      <c r="N25">
-        <v>14</v>
-      </c>
-      <c r="O25">
-        <v>13</v>
-      </c>
-      <c r="P25">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>23</v>
-      </c>
-      <c r="R25">
-        <v>14</v>
-      </c>
-      <c r="S25">
-        <v>46</v>
-      </c>
-      <c r="T25">
-        <v>12</v>
-      </c>
-      <c r="U25">
-        <v>156</v>
-      </c>
-      <c r="V25">
-        <v>0.61</v>
-      </c>
-      <c r="W25" s="7">
-        <f t="shared" si="0"/>
-        <v>4716</v>
+      <c r="Q25" s="3"/>
+      <c r="W25" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X25" s="7">
         <f t="shared" si="3"/>
-        <v>24024</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="7">
         <f t="shared" si="4"/>
-        <v>19308</v>
-      </c>
-      <c r="Z25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.80369630369630374</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA25" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB25" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC25" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD25" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC25" s="14">
-        <f t="shared" si="7"/>
-        <v>16.447853816183819</v>
-      </c>
-      <c r="AD25" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
@@ -13792,100 +17990,38 @@
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="B26">
-        <v>3.8626499999999999</v>
-      </c>
-      <c r="C26">
-        <v>1.64612</v>
-      </c>
-      <c r="D26">
-        <v>15</v>
-      </c>
-      <c r="E26">
-        <v>38</v>
-      </c>
-      <c r="F26">
-        <v>25</v>
-      </c>
-      <c r="G26">
-        <v>23</v>
-      </c>
-      <c r="H26">
-        <v>33</v>
-      </c>
-      <c r="I26">
-        <v>32</v>
-      </c>
-      <c r="J26">
-        <v>11</v>
-      </c>
-      <c r="K26">
-        <v>26</v>
-      </c>
-      <c r="L26">
-        <v>41</v>
-      </c>
-      <c r="M26">
-        <v>16</v>
-      </c>
-      <c r="N26">
-        <v>13</v>
-      </c>
-      <c r="O26">
-        <v>13</v>
-      </c>
-      <c r="P26">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>23</v>
-      </c>
-      <c r="R26">
-        <v>14</v>
-      </c>
-      <c r="S26">
-        <v>46</v>
-      </c>
-      <c r="T26">
-        <v>12</v>
-      </c>
-      <c r="U26">
-        <v>152</v>
-      </c>
-      <c r="V26">
-        <v>0.61</v>
-      </c>
-      <c r="W26" s="7">
-        <f t="shared" si="0"/>
-        <v>4644</v>
+      <c r="Q26" s="3"/>
+      <c r="W26" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X26" s="7">
         <f t="shared" si="3"/>
-        <v>23408</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="7">
         <f t="shared" si="4"/>
-        <v>18764</v>
-      </c>
-      <c r="Z26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.80160628844839377</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA26" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB26" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC26" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD26" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC26" s="14">
-        <f t="shared" si="7"/>
-        <v>16.405081110731377</v>
-      </c>
-      <c r="AD26" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.35">
@@ -13893,100 +18029,38 @@
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="B27">
-        <v>5.4082100000000004</v>
-      </c>
-      <c r="C27">
-        <v>1.4055899999999999</v>
-      </c>
-      <c r="D27">
-        <v>26</v>
-      </c>
-      <c r="E27">
-        <v>27</v>
-      </c>
-      <c r="F27">
-        <v>25</v>
-      </c>
-      <c r="G27">
-        <v>24</v>
-      </c>
-      <c r="H27">
-        <v>33</v>
-      </c>
-      <c r="I27">
-        <v>33</v>
-      </c>
-      <c r="J27">
-        <v>11</v>
-      </c>
-      <c r="K27">
-        <v>27</v>
-      </c>
-      <c r="L27">
-        <v>44</v>
-      </c>
-      <c r="M27">
-        <v>25</v>
-      </c>
-      <c r="N27">
-        <v>13</v>
-      </c>
-      <c r="O27">
-        <v>13</v>
-      </c>
-      <c r="P27">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>23</v>
-      </c>
-      <c r="R27">
-        <v>14</v>
-      </c>
-      <c r="S27">
-        <v>46</v>
-      </c>
-      <c r="T27">
-        <v>12</v>
-      </c>
-      <c r="U27">
-        <v>202</v>
-      </c>
-      <c r="V27">
-        <v>0.61</v>
-      </c>
-      <c r="W27" s="7">
-        <f t="shared" si="0"/>
-        <v>4836</v>
+      <c r="Q27" s="3"/>
+      <c r="W27" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X27" s="7">
         <f t="shared" si="3"/>
-        <v>31108</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="7">
         <f t="shared" si="4"/>
-        <v>26272</v>
-      </c>
-      <c r="Z27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.8445415970168445</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA27" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB27" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC27" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD27" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC27" s="14">
-        <f t="shared" si="7"/>
-        <v>17.283763363764951</v>
-      </c>
-      <c r="AD27" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
@@ -13994,100 +18068,38 @@
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="B28">
-        <v>3.47729</v>
-      </c>
-      <c r="C28">
-        <v>1.6943999999999999</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>17</v>
-      </c>
-      <c r="F28">
-        <v>25</v>
-      </c>
-      <c r="G28">
-        <v>48</v>
-      </c>
-      <c r="H28">
-        <v>33</v>
-      </c>
-      <c r="I28">
-        <v>32</v>
-      </c>
-      <c r="J28">
-        <v>11</v>
-      </c>
-      <c r="K28">
-        <v>26</v>
-      </c>
-      <c r="L28">
-        <v>43</v>
-      </c>
-      <c r="M28">
-        <v>16</v>
-      </c>
-      <c r="N28">
-        <v>14</v>
-      </c>
-      <c r="O28">
-        <v>13</v>
-      </c>
-      <c r="P28">
-        <v>19</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>23</v>
-      </c>
-      <c r="R28">
-        <v>14</v>
-      </c>
-      <c r="S28">
-        <v>45</v>
-      </c>
-      <c r="T28">
-        <v>12</v>
-      </c>
-      <c r="U28">
-        <v>140</v>
-      </c>
-      <c r="V28">
-        <v>0.61</v>
-      </c>
-      <c r="W28" s="7">
-        <f t="shared" si="0"/>
-        <v>4668</v>
+      <c r="Q28" s="3"/>
+      <c r="W28" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X28" s="7">
         <f t="shared" si="3"/>
-        <v>21560</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="7">
         <f t="shared" si="4"/>
-        <v>16892</v>
-      </c>
-      <c r="Z28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.78348794063079774</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA28" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB28" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC28" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD28" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC28" s="14">
-        <f t="shared" si="7"/>
-        <v>16.034284411873845</v>
-      </c>
-      <c r="AD28" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
@@ -14095,100 +18107,38 @@
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="B29">
-        <v>3.65021</v>
-      </c>
-      <c r="C29">
-        <v>1.6605300000000001</v>
-      </c>
-      <c r="D29">
-        <v>15</v>
-      </c>
-      <c r="E29">
-        <v>39</v>
-      </c>
-      <c r="F29">
-        <v>25</v>
-      </c>
-      <c r="G29">
-        <v>24</v>
-      </c>
-      <c r="H29">
-        <v>33</v>
-      </c>
-      <c r="I29">
-        <v>32</v>
-      </c>
-      <c r="J29">
-        <v>10</v>
-      </c>
-      <c r="K29">
-        <v>26</v>
-      </c>
-      <c r="L29">
-        <v>40</v>
-      </c>
-      <c r="M29">
-        <v>25</v>
-      </c>
-      <c r="N29">
-        <v>13</v>
-      </c>
-      <c r="O29">
-        <v>13</v>
-      </c>
-      <c r="P29">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>23</v>
-      </c>
-      <c r="R29">
-        <v>14</v>
-      </c>
-      <c r="S29">
-        <v>46</v>
-      </c>
-      <c r="T29">
-        <v>12</v>
-      </c>
-      <c r="U29">
-        <v>146</v>
-      </c>
-      <c r="V29">
-        <v>0.61</v>
-      </c>
-      <c r="W29" s="7">
-        <f t="shared" si="0"/>
-        <v>4752</v>
+      <c r="Q29" s="3"/>
+      <c r="W29" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X29" s="7">
         <f t="shared" si="3"/>
-        <v>22484</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="7">
         <f t="shared" si="4"/>
-        <v>17732</v>
-      </c>
-      <c r="Z29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.78864970645792565</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA29" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB29" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC29" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD29" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC29" s="14">
-        <f t="shared" si="7"/>
-        <v>16.139921291585132</v>
-      </c>
-      <c r="AD29" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
@@ -14196,100 +18146,38 @@
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="B30">
-        <v>3.5794000000000001</v>
-      </c>
-      <c r="C30">
-        <v>1.66391</v>
-      </c>
-      <c r="D30">
-        <v>15</v>
-      </c>
-      <c r="E30">
-        <v>39</v>
-      </c>
-      <c r="F30">
-        <v>25</v>
-      </c>
-      <c r="G30">
-        <v>24</v>
-      </c>
-      <c r="H30">
-        <v>33</v>
-      </c>
-      <c r="I30">
-        <v>32</v>
-      </c>
-      <c r="J30">
-        <v>11</v>
-      </c>
-      <c r="K30">
-        <v>26</v>
-      </c>
-      <c r="L30">
-        <v>41</v>
-      </c>
-      <c r="M30">
-        <v>25</v>
-      </c>
-      <c r="N30">
-        <v>14</v>
-      </c>
-      <c r="O30">
-        <v>13</v>
-      </c>
-      <c r="P30">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>23</v>
-      </c>
-      <c r="R30">
-        <v>14</v>
-      </c>
-      <c r="S30">
-        <v>46</v>
-      </c>
-      <c r="T30">
-        <v>12</v>
-      </c>
-      <c r="U30">
-        <v>144</v>
-      </c>
-      <c r="V30">
-        <v>0.61</v>
-      </c>
-      <c r="W30" s="7">
-        <f t="shared" si="0"/>
-        <v>4788</v>
+      <c r="Q30" s="3"/>
+      <c r="W30" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X30" s="7">
         <f t="shared" si="3"/>
-        <v>22176</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="7">
         <f t="shared" si="4"/>
-        <v>17388</v>
-      </c>
-      <c r="Z30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.78409090909090906</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA30" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB30" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC30" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD30" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC30" s="14">
-        <f t="shared" si="7"/>
-        <v>16.04662431818182</v>
-      </c>
-      <c r="AD30" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
@@ -14297,100 +18185,38 @@
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="B31">
-        <v>5.1381300000000003</v>
-      </c>
-      <c r="C31">
-        <v>1.4678100000000001</v>
-      </c>
-      <c r="D31">
-        <v>15</v>
-      </c>
-      <c r="E31">
-        <v>13</v>
-      </c>
-      <c r="F31">
-        <v>24</v>
-      </c>
-      <c r="G31">
-        <v>46</v>
-      </c>
-      <c r="H31">
-        <v>33</v>
-      </c>
-      <c r="I31">
-        <v>32</v>
-      </c>
-      <c r="J31">
-        <v>11</v>
-      </c>
-      <c r="K31">
-        <v>27</v>
-      </c>
-      <c r="L31">
-        <v>40</v>
-      </c>
-      <c r="M31">
-        <v>16</v>
-      </c>
-      <c r="N31">
-        <v>13</v>
-      </c>
-      <c r="O31">
-        <v>13</v>
-      </c>
-      <c r="P31">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>23</v>
-      </c>
-      <c r="R31">
-        <v>14</v>
-      </c>
-      <c r="S31">
-        <v>46</v>
-      </c>
-      <c r="T31">
-        <v>12</v>
-      </c>
-      <c r="U31">
-        <v>192</v>
-      </c>
-      <c r="V31">
-        <v>0.61</v>
-      </c>
-      <c r="W31" s="7">
-        <f t="shared" si="0"/>
-        <v>4608</v>
+      <c r="Q31" s="3"/>
+      <c r="W31" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X31" s="7">
         <f t="shared" si="3"/>
-        <v>29568</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="7">
         <f t="shared" si="4"/>
-        <v>24960</v>
-      </c>
-      <c r="Z31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.8441558441558441</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA31" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB31" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC31" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD31" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC31" s="14">
-        <f t="shared" si="7"/>
-        <v>17.275868831168832</v>
-      </c>
-      <c r="AD31" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
@@ -14398,100 +18224,38 @@
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="B32">
-        <v>8.4787300000000005</v>
-      </c>
-      <c r="C32">
-        <v>1.1341699999999999</v>
-      </c>
-      <c r="D32">
-        <v>11</v>
-      </c>
-      <c r="E32">
-        <v>13</v>
-      </c>
-      <c r="F32">
-        <v>25</v>
-      </c>
-      <c r="G32">
-        <v>46</v>
-      </c>
-      <c r="H32">
-        <v>33</v>
-      </c>
-      <c r="I32">
-        <v>32</v>
-      </c>
-      <c r="J32">
-        <v>11</v>
-      </c>
-      <c r="K32">
-        <v>27</v>
-      </c>
-      <c r="L32">
-        <v>41</v>
-      </c>
-      <c r="M32">
-        <v>25</v>
-      </c>
-      <c r="N32">
-        <v>14</v>
-      </c>
-      <c r="O32">
-        <v>13</v>
-      </c>
-      <c r="P32">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>22</v>
-      </c>
-      <c r="R32">
-        <v>14</v>
-      </c>
-      <c r="S32">
-        <v>46</v>
-      </c>
-      <c r="T32">
-        <v>12</v>
-      </c>
-      <c r="U32">
-        <v>298</v>
-      </c>
-      <c r="V32">
-        <v>0.61</v>
-      </c>
-      <c r="W32" s="7">
-        <f t="shared" si="0"/>
-        <v>4704</v>
+      <c r="Q32" s="3"/>
+      <c r="W32" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X32" s="7">
         <f t="shared" si="3"/>
-        <v>45892</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="7">
         <f t="shared" si="4"/>
-        <v>41188</v>
-      </c>
-      <c r="Z32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.89749847467968269</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA32" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB32" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC32" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD32" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC32" s="14">
-        <f t="shared" si="7"/>
-        <v>18.367539633923126</v>
-      </c>
-      <c r="AD32" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AN32" s="15"/>
     </row>
@@ -14500,100 +18264,38 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="B33">
-        <v>3.9260600000000001</v>
-      </c>
-      <c r="C33">
-        <v>1.63534</v>
-      </c>
-      <c r="D33">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>38</v>
-      </c>
-      <c r="F33">
-        <v>25</v>
-      </c>
-      <c r="G33">
-        <v>23</v>
-      </c>
-      <c r="H33">
-        <v>33</v>
-      </c>
-      <c r="I33">
-        <v>33</v>
-      </c>
-      <c r="J33">
-        <v>10</v>
-      </c>
-      <c r="K33">
-        <v>26</v>
-      </c>
-      <c r="L33">
-        <v>41</v>
-      </c>
-      <c r="M33">
-        <v>16</v>
-      </c>
-      <c r="N33">
-        <v>13</v>
-      </c>
-      <c r="O33">
-        <v>13</v>
-      </c>
-      <c r="P33">
-        <v>18</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>23</v>
-      </c>
-      <c r="R33">
-        <v>14</v>
-      </c>
-      <c r="S33">
-        <v>46</v>
-      </c>
-      <c r="T33">
-        <v>12</v>
-      </c>
-      <c r="U33">
-        <v>154</v>
-      </c>
-      <c r="V33">
-        <v>0.61</v>
-      </c>
-      <c r="W33" s="7">
-        <f t="shared" si="0"/>
-        <v>4644</v>
+      <c r="Q33" s="3"/>
+      <c r="W33" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X33" s="7">
         <f t="shared" si="3"/>
-        <v>23716</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="7">
         <f t="shared" si="4"/>
-        <v>19072</v>
-      </c>
-      <c r="Z33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.8041828301568561</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA33" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB33" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC33" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD33" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC33" s="14">
-        <f t="shared" si="7"/>
-        <v>16.457810706695906</v>
-      </c>
-      <c r="AD33" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.35">
@@ -14601,100 +18303,38 @@
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="B34">
-        <v>8.1666600000000003</v>
-      </c>
-      <c r="C34">
-        <v>1.1600600000000001</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>17</v>
-      </c>
-      <c r="F34">
-        <v>25</v>
-      </c>
-      <c r="G34">
-        <v>47</v>
-      </c>
-      <c r="H34">
-        <v>33</v>
-      </c>
-      <c r="I34">
-        <v>32</v>
-      </c>
-      <c r="J34">
-        <v>11</v>
-      </c>
-      <c r="K34">
-        <v>26</v>
-      </c>
-      <c r="L34">
-        <v>43</v>
-      </c>
-      <c r="M34">
-        <v>14</v>
-      </c>
-      <c r="N34">
-        <v>14</v>
-      </c>
-      <c r="O34">
-        <v>17</v>
-      </c>
-      <c r="P34">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>23</v>
-      </c>
-      <c r="R34">
-        <v>14</v>
-      </c>
-      <c r="S34">
-        <v>45</v>
-      </c>
-      <c r="T34">
-        <v>12</v>
-      </c>
-      <c r="U34">
-        <v>288</v>
-      </c>
-      <c r="V34">
-        <v>0.61</v>
-      </c>
-      <c r="W34" s="7">
-        <f t="shared" si="0"/>
-        <v>4680</v>
+      <c r="Q34" s="3"/>
+      <c r="W34" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X34" s="7">
         <f t="shared" si="3"/>
-        <v>44352</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="7">
         <f t="shared" si="4"/>
-        <v>39672</v>
-      </c>
-      <c r="Z34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.89448051948051943</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA34" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB34" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC34" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD34" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC34" s="14">
-        <f t="shared" si="7"/>
-        <v>18.305776396103898</v>
-      </c>
-      <c r="AD34" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.35">
@@ -14702,100 +18342,38 @@
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="B35">
-        <v>5.2912800000000004</v>
-      </c>
-      <c r="C35">
-        <v>1.4300200000000001</v>
-      </c>
-      <c r="D35">
-        <v>26</v>
-      </c>
-      <c r="E35">
-        <v>27</v>
-      </c>
-      <c r="F35">
-        <v>25</v>
-      </c>
-      <c r="G35">
-        <v>24</v>
-      </c>
-      <c r="H35">
-        <v>33</v>
-      </c>
-      <c r="I35">
-        <v>33</v>
-      </c>
-      <c r="J35">
-        <v>11</v>
-      </c>
-      <c r="K35">
-        <v>27</v>
-      </c>
-      <c r="L35">
-        <v>40</v>
-      </c>
-      <c r="M35">
-        <v>25</v>
-      </c>
-      <c r="N35">
-        <v>13</v>
-      </c>
-      <c r="O35">
-        <v>13</v>
-      </c>
-      <c r="P35">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>23</v>
-      </c>
-      <c r="R35">
-        <v>14</v>
-      </c>
-      <c r="S35">
-        <v>46</v>
-      </c>
-      <c r="T35">
-        <v>12</v>
-      </c>
-      <c r="U35">
-        <v>198</v>
-      </c>
-      <c r="V35">
-        <v>0.61</v>
-      </c>
-      <c r="W35" s="7">
-        <f t="shared" si="0"/>
-        <v>4788</v>
+      <c r="Q35" s="3"/>
+      <c r="W35" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X35" s="7">
         <f t="shared" si="3"/>
-        <v>30492</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="7">
         <f t="shared" si="4"/>
-        <v>25704</v>
-      </c>
-      <c r="Z35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.84297520661157022</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA35" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB35" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC35" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD35" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC35" s="14">
-        <f t="shared" si="7"/>
-        <v>17.251706776859507</v>
-      </c>
-      <c r="AD35" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.35">
@@ -14803,100 +18381,38 @@
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="B36">
-        <v>5.25258</v>
-      </c>
-      <c r="C36">
-        <v>1.45201</v>
-      </c>
-      <c r="D36">
-        <v>14</v>
-      </c>
-      <c r="E36">
-        <v>38</v>
-      </c>
-      <c r="F36">
-        <v>24</v>
-      </c>
-      <c r="G36">
-        <v>24</v>
-      </c>
-      <c r="H36">
-        <v>33</v>
-      </c>
-      <c r="I36">
-        <v>32</v>
-      </c>
-      <c r="J36">
-        <v>11</v>
-      </c>
-      <c r="K36">
-        <v>26</v>
-      </c>
-      <c r="L36">
-        <v>40</v>
-      </c>
-      <c r="M36">
-        <v>16</v>
-      </c>
-      <c r="N36">
-        <v>13</v>
-      </c>
-      <c r="O36">
-        <v>17</v>
-      </c>
-      <c r="P36">
-        <v>18</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>23</v>
-      </c>
-      <c r="R36">
-        <v>14</v>
-      </c>
-      <c r="S36">
-        <v>46</v>
-      </c>
-      <c r="T36">
-        <v>12</v>
-      </c>
-      <c r="U36">
-        <v>196</v>
-      </c>
-      <c r="V36">
-        <v>0.61</v>
-      </c>
-      <c r="W36" s="7">
-        <f t="shared" si="0"/>
-        <v>4668</v>
+      <c r="Q36" s="3"/>
+      <c r="W36" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X36" s="7">
         <f t="shared" si="3"/>
-        <v>30184</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="7">
         <f t="shared" si="4"/>
-        <v>25516</v>
-      </c>
-      <c r="Z36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.84534852902199842</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA36" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB36" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC36" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD36" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC36" s="14">
-        <f t="shared" si="7"/>
-        <v>17.300277437052745</v>
-      </c>
-      <c r="AD36" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.35">
@@ -14904,100 +18420,38 @@
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="B37">
-        <v>6.6523899999999996</v>
-      </c>
-      <c r="C37">
-        <v>1.29498</v>
-      </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <v>19</v>
-      </c>
-      <c r="F37">
-        <v>25</v>
-      </c>
-      <c r="G37">
-        <v>47</v>
-      </c>
-      <c r="H37">
-        <v>33</v>
-      </c>
-      <c r="I37">
-        <v>32</v>
-      </c>
-      <c r="J37">
-        <v>11</v>
-      </c>
-      <c r="K37">
-        <v>26</v>
-      </c>
-      <c r="L37">
-        <v>40</v>
-      </c>
-      <c r="M37">
-        <v>15</v>
-      </c>
-      <c r="N37">
-        <v>14</v>
-      </c>
-      <c r="O37">
-        <v>13</v>
-      </c>
-      <c r="P37">
-        <v>19</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>23</v>
-      </c>
-      <c r="R37">
-        <v>14</v>
-      </c>
-      <c r="S37">
-        <v>46</v>
-      </c>
-      <c r="T37">
-        <v>12</v>
-      </c>
-      <c r="U37">
-        <v>240</v>
-      </c>
-      <c r="V37">
-        <v>0.61</v>
-      </c>
-      <c r="W37" s="7">
-        <f t="shared" si="0"/>
-        <v>4644</v>
+      <c r="Q37" s="3"/>
+      <c r="W37" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X37" s="7">
         <f t="shared" si="3"/>
-        <v>36960</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="7">
         <f t="shared" si="4"/>
-        <v>32316</v>
-      </c>
-      <c r="Z37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.87435064935064932</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA37" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB37" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC37" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD37" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC37" s="14">
-        <f t="shared" si="7"/>
-        <v>17.893813370129873</v>
-      </c>
-      <c r="AD37" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.35">
@@ -15005,100 +18459,38 @@
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="B38">
-        <v>7.5548599999999997</v>
-      </c>
-      <c r="C38">
-        <v>1.2233400000000001</v>
-      </c>
-      <c r="D38">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>38</v>
-      </c>
-      <c r="F38">
-        <v>25</v>
-      </c>
-      <c r="G38">
-        <v>25</v>
-      </c>
-      <c r="H38">
-        <v>33</v>
-      </c>
-      <c r="I38">
-        <v>33</v>
-      </c>
-      <c r="J38">
-        <v>11</v>
-      </c>
-      <c r="K38">
-        <v>27</v>
-      </c>
-      <c r="L38">
-        <v>40</v>
-      </c>
-      <c r="M38">
-        <v>14</v>
-      </c>
-      <c r="N38">
-        <v>13</v>
-      </c>
-      <c r="O38">
-        <v>11</v>
-      </c>
-      <c r="P38">
-        <v>18</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>23</v>
-      </c>
-      <c r="R38">
-        <v>14</v>
-      </c>
-      <c r="S38">
-        <v>46</v>
-      </c>
-      <c r="T38">
-        <v>12</v>
-      </c>
-      <c r="U38">
-        <v>268</v>
-      </c>
-      <c r="V38">
-        <v>0.61</v>
-      </c>
-      <c r="W38" s="7">
-        <f t="shared" si="0"/>
-        <v>4572</v>
+      <c r="Q38" s="3"/>
+      <c r="W38" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X38" s="7">
         <f t="shared" si="3"/>
-        <v>41272</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="7">
         <f t="shared" si="4"/>
-        <v>36700</v>
-      </c>
-      <c r="Z38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.88922271758092652</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA38" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB38" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC38" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD38" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC38" s="14">
-        <f t="shared" si="7"/>
-        <v>18.198174113200235</v>
-      </c>
-      <c r="AD38" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.35">
@@ -15106,100 +18498,38 @@
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="B39">
-        <v>5.8816699999999997</v>
-      </c>
-      <c r="C39">
-        <v>1.37632</v>
-      </c>
-      <c r="D39">
-        <v>26</v>
-      </c>
-      <c r="E39">
-        <v>27</v>
-      </c>
-      <c r="F39">
-        <v>25</v>
-      </c>
-      <c r="G39">
-        <v>24</v>
-      </c>
-      <c r="H39">
-        <v>33</v>
-      </c>
-      <c r="I39">
-        <v>32</v>
-      </c>
-      <c r="J39">
-        <v>11</v>
-      </c>
-      <c r="K39">
-        <v>27</v>
-      </c>
-      <c r="L39">
-        <v>40</v>
-      </c>
-      <c r="M39">
-        <v>25</v>
-      </c>
-      <c r="N39">
-        <v>13</v>
-      </c>
-      <c r="O39">
-        <v>13</v>
-      </c>
-      <c r="P39">
-        <v>12</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>23</v>
-      </c>
-      <c r="R39">
-        <v>14</v>
-      </c>
-      <c r="S39">
-        <v>46</v>
-      </c>
-      <c r="T39">
-        <v>12</v>
-      </c>
-      <c r="U39">
-        <v>216</v>
-      </c>
-      <c r="V39">
-        <v>0.61</v>
-      </c>
-      <c r="W39" s="7">
-        <f t="shared" si="0"/>
-        <v>4692</v>
+      <c r="Q39" s="3"/>
+      <c r="W39" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X39" s="7">
         <f t="shared" si="3"/>
-        <v>33264</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="7">
         <f t="shared" si="4"/>
-        <v>28572</v>
-      </c>
-      <c r="Z39" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.8589466089466089</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA39" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB39" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC39" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD39" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC39" s="14">
-        <f t="shared" si="7"/>
-        <v>17.57856567821068</v>
-      </c>
-      <c r="AD39" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.35">
@@ -15207,126 +18537,144 @@
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="B40">
-        <v>6.6211000000000002</v>
-      </c>
-      <c r="C40">
-        <v>1.3227</v>
-      </c>
-      <c r="D40">
-        <v>11</v>
-      </c>
-      <c r="E40">
-        <v>19</v>
-      </c>
-      <c r="F40">
-        <v>25</v>
-      </c>
-      <c r="G40">
-        <v>46</v>
-      </c>
-      <c r="H40">
-        <v>22</v>
-      </c>
-      <c r="I40">
-        <v>31</v>
-      </c>
-      <c r="J40">
-        <v>11</v>
-      </c>
-      <c r="K40">
-        <v>26</v>
-      </c>
-      <c r="L40">
-        <v>40</v>
-      </c>
-      <c r="M40">
-        <v>15</v>
-      </c>
-      <c r="N40">
-        <v>13</v>
-      </c>
-      <c r="O40">
-        <v>13</v>
-      </c>
-      <c r="P40">
-        <v>19</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>23</v>
-      </c>
-      <c r="R40">
-        <v>14</v>
-      </c>
-      <c r="S40">
-        <v>46</v>
-      </c>
-      <c r="T40">
-        <v>12</v>
-      </c>
-      <c r="U40">
-        <v>238</v>
-      </c>
-      <c r="V40">
-        <v>0.61</v>
-      </c>
-      <c r="W40" s="7">
-        <f t="shared" si="0"/>
-        <v>4488</v>
+      <c r="Q40" s="3"/>
+      <c r="W40" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X40" s="7">
         <f t="shared" si="3"/>
-        <v>36652</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="7">
         <f t="shared" si="4"/>
-        <v>32164</v>
-      </c>
-      <c r="Z40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.87755102040816324</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA40" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB40" s="10">
+        <f t="shared" si="0"/>
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC40" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD40" s="10" t="e">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC40" s="14">
-        <f t="shared" si="7"/>
-        <v>17.959309795918372</v>
-      </c>
-      <c r="AD40" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B41" s="17"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
+      <c r="W41" s="24">
+        <f t="shared" ref="W41:W45" si="9">SUM(D41:S41)*T41</f>
+        <v>0</v>
+      </c>
+      <c r="X41" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B42" s="17"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
+      <c r="W42" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B43" s="17"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
+      <c r="W43" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B44" s="17"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
+      <c r="W44" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B45" s="17"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
+      <c r="W45" s="24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="9" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B46" s="17"/>

--- a/OptPython/Registros.xlsb.xlsx
+++ b/OptPython/Registros.xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nchubretovic\OneDrive - Entel\Escritorio\Sole\Tesis\OptPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A781EC2-3C28-4BDC-A418-CDB3AF019C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE216233-1835-4497-8A58-FBAAC3831F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{AFDFF0EE-C16A-4C5D-A58F-D56EFC62F348}"/>
   </bookViews>
@@ -179,11 +179,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -333,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1137,204 +1139,186 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Model_1_30.50.50'!$B$10:$B$40</c:f>
+              <c:f>'Model_1_30.50.50-1'!$B$10:$B$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>8.2349999999999994</c:v>
+                  <c:v>8.0785499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0155200000000004</c:v>
+                  <c:v>4.1866700000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2909900000000007</c:v>
+                  <c:v>7.1987300000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3770800000000003</c:v>
+                  <c:v>3.9678399999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8302500000000004</c:v>
+                  <c:v>3.3918599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.1349200000000002</c:v>
+                  <c:v>7.7426000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0739799999999997</c:v>
+                  <c:v>8.2177100000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8986000000000001</c:v>
+                  <c:v>3.7508699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4713200000000004</c:v>
+                  <c:v>4.6039700000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3620999999999999</c:v>
+                  <c:v>6.5325899999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.3395799999999998</c:v>
+                  <c:v>4.25007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.20153</c:v>
+                  <c:v>4.6666499999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3040099999999999</c:v>
+                  <c:v>3.4338600000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.92293</c:v>
+                  <c:v>8.3841800000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5283500000000001</c:v>
+                  <c:v>6.8003400000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.97464</c:v>
+                  <c:v>3.4999400000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8626499999999999</c:v>
+                  <c:v>6.43384</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4082100000000004</c:v>
+                  <c:v>6.3158099999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.47729</c:v>
+                  <c:v>4.54129</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.65021</c:v>
+                  <c:v>8.3166200000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5794000000000001</c:v>
+                  <c:v>6.9871100000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.1381300000000003</c:v>
+                  <c:v>3.97052</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.4787300000000005</c:v>
+                  <c:v>4.1446699999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9260600000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.1666600000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.2912800000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.25258</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.6523899999999996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.5548599999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.8816699999999997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.6211000000000002</c:v>
+                  <c:v>6.3131399999999998</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>7.3568300000000004</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>8.4370899999999995</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>6.4325400000000004</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>6.3137600000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Model_1_30.50.50'!$C$10:$C$40</c:f>
+              <c:f>'Model_1_30.50.50-1'!$C$10:$C$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.0000</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1.15663</c:v>
+                  <c:v>1.1252200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.25088</c:v>
+                  <c:v>1.4780199999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.14828</c:v>
+                  <c:v>1.19086</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.55674</c:v>
+                  <c:v>1.5424599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2706900000000001</c:v>
+                  <c:v>1.6211100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2358</c:v>
+                  <c:v>1.1329400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.24356</c:v>
+                  <c:v>1.1194</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2688900000000001</c:v>
+                  <c:v>1.5480499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1342000000000001</c:v>
+                  <c:v>1.4254100000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.42259</c:v>
+                  <c:v>1.22699</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.14009</c:v>
+                  <c:v>1.46959</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4655499999999999</c:v>
+                  <c:v>1.41781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5738300000000001</c:v>
+                  <c:v>1.59453</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1830400000000001</c:v>
+                  <c:v>1.0948800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6755</c:v>
+                  <c:v>1.1996800000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.57934</c:v>
+                  <c:v>1.58789</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.64612</c:v>
+                  <c:v>1.2483599999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4055899999999999</c:v>
+                  <c:v>1.2659100000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6943999999999999</c:v>
+                  <c:v>1.4333100000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6605300000000001</c:v>
+                  <c:v>1.09598</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.66391</c:v>
+                  <c:v>1.19493</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.4678100000000001</c:v>
+                  <c:v>1.54186</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1341699999999999</c:v>
+                  <c:v>1.5037199999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.63534</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.1600600000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4300200000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.45201</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.29498</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.2233400000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.37632</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.3227</c:v>
+                  <c:v>1.27949</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>1.1600999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>1.08483</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>1.2526299999999999</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>1.2679499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1434,7 +1418,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1553,7 +1537,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5683,8 +5667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5B13DB-F2E6-4D48-B712-225CDCFA4D1E}">
   <dimension ref="A1:AN65"/>
   <sheetViews>
-    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="T1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9256,8 +9240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BAFD97-F98A-46E7-AA06-966BE16BD7F2}">
   <dimension ref="A1:AN65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="Z7" workbookViewId="0">
+      <selection activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9414,7 +9398,9 @@
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>151199</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
@@ -9435,7 +9421,7 @@
       </c>
       <c r="C7" s="4">
         <f>C6/(60*60)</f>
-        <v>0</v>
+        <v>41.999722222222225</v>
       </c>
       <c r="D7" s="3"/>
       <c r="I7" s="25"/>
@@ -9570,84 +9556,84 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>8.2349999999999994</v>
-      </c>
-      <c r="C10">
-        <v>1.15663</v>
+      <c r="B10" s="26">
+        <v>8.0785499999999999</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1.1252200000000001</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10">
         <v>24</v>
       </c>
-      <c r="G10">
-        <v>25</v>
-      </c>
       <c r="H10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>11</v>
       </c>
       <c r="K10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L10">
         <v>40</v>
       </c>
       <c r="M10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N10">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P10">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q10">
         <v>23</v>
       </c>
       <c r="R10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S10">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="T10">
         <v>12</v>
       </c>
       <c r="U10">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="V10">
         <v>0.61</v>
       </c>
       <c r="W10" s="7">
         <f t="shared" ref="W10:W40" si="0">SUM(D10:S10)*T10</f>
-        <v>4656</v>
+        <v>4800</v>
       </c>
       <c r="X10" s="7">
         <f>$F$2*U10</f>
-        <v>44660</v>
+        <v>44044</v>
       </c>
       <c r="Y10" s="7">
         <f>X10-W10</f>
-        <v>40004</v>
+        <v>39244</v>
       </c>
       <c r="Z10" s="9">
         <f>Y10/X10</f>
-        <v>0.89574563367666815</v>
+        <v>0.89101807283625467</v>
       </c>
       <c r="AA10" s="18">
         <f>0.0000020841*V10+0.00000055042</f>
@@ -9659,7 +9645,7 @@
       </c>
       <c r="AC10" s="14">
         <f>AB10*Z10</f>
-        <v>18.331667287057773</v>
+        <v>18.234916525292892</v>
       </c>
       <c r="AD10" s="10" t="str">
         <f t="shared" ref="AD10:AD40" si="2">IF(AC10&gt;=$F$4,"cumple","no cumple")</f>
@@ -9672,26 +9658,26 @@
         <f>1+A10</f>
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>7.0155200000000004</v>
-      </c>
-      <c r="C11">
-        <v>1.25088</v>
+      <c r="B11" s="26">
+        <v>4.1866700000000003</v>
+      </c>
+      <c r="C11" s="26">
+        <v>1.4780199999999999</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>32</v>
@@ -9703,13 +9689,13 @@
         <v>26</v>
       </c>
       <c r="L11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O11">
         <v>13</v>
@@ -9717,39 +9703,39 @@
       <c r="P11">
         <v>19</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11">
         <v>23</v>
       </c>
       <c r="R11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S11">
-        <v>46</v>
-      </c>
-      <c r="T11" s="12">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="T11">
+        <v>13</v>
       </c>
       <c r="U11">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="V11">
         <v>0.61</v>
       </c>
       <c r="W11" s="7">
         <f t="shared" si="0"/>
-        <v>4728</v>
+        <v>5226</v>
       </c>
       <c r="X11" s="7">
         <f t="shared" ref="X11:X40" si="3">$F$2*U11</f>
-        <v>38808</v>
+        <v>25564</v>
       </c>
       <c r="Y11" s="7">
         <f t="shared" ref="Y11:Y40" si="4">X11-W11</f>
-        <v>34080</v>
+        <v>20338</v>
       </c>
       <c r="Z11" s="9">
         <f t="shared" ref="Z11:Z40" si="5">Y11/X11</f>
-        <v>0.87816944959802101</v>
+        <v>0.79557189798153649</v>
       </c>
       <c r="AA11" s="18">
         <f t="shared" ref="AA11:AA40" si="6">0.0000020841*V11+0.00000055042</f>
@@ -9761,7 +9747,7 @@
       </c>
       <c r="AC11" s="14">
         <f t="shared" ref="AC11:AC40" si="7">AB11*Z11</f>
-        <v>17.971966110080398</v>
+        <v>16.281585740885625</v>
       </c>
       <c r="AD11" s="10" t="str">
         <f t="shared" si="2"/>
@@ -9774,35 +9760,35 @@
         <f t="shared" ref="A12:A40" si="8">1+A11</f>
         <v>3</v>
       </c>
-      <c r="B12">
-        <v>8.2909900000000007</v>
-      </c>
-      <c r="C12">
-        <v>1.14828</v>
+      <c r="B12" s="26">
+        <v>7.1987300000000003</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1.19086</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
         <v>24</v>
       </c>
-      <c r="G12">
-        <v>25</v>
-      </c>
       <c r="H12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J12">
         <v>11</v>
       </c>
       <c r="K12">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="L12">
         <v>40</v>
@@ -9811,47 +9797,47 @@
         <v>16</v>
       </c>
       <c r="N12">
+        <v>17</v>
+      </c>
+      <c r="O12">
+        <v>14</v>
+      </c>
+      <c r="P12">
+        <v>19</v>
+      </c>
+      <c r="Q12">
+        <v>23</v>
+      </c>
+      <c r="R12">
+        <v>15</v>
+      </c>
+      <c r="S12">
+        <v>46</v>
+      </c>
+      <c r="T12">
         <v>13</v>
       </c>
-      <c r="O12">
-        <v>13</v>
-      </c>
-      <c r="P12">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>23</v>
-      </c>
-      <c r="R12">
-        <v>14</v>
-      </c>
-      <c r="S12">
-        <v>54</v>
-      </c>
-      <c r="T12">
-        <v>12</v>
-      </c>
       <c r="U12">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="V12">
         <v>0.61</v>
       </c>
       <c r="W12" s="7">
         <f t="shared" si="0"/>
-        <v>4692</v>
+        <v>5070</v>
       </c>
       <c r="X12" s="7">
         <f t="shared" si="3"/>
-        <v>44968</v>
+        <v>40040</v>
       </c>
       <c r="Y12" s="7">
         <f t="shared" si="4"/>
-        <v>40276</v>
+        <v>34970</v>
       </c>
       <c r="Z12" s="9">
         <f t="shared" si="5"/>
-        <v>0.89565913538516273</v>
+        <v>0.87337662337662336</v>
       </c>
       <c r="AA12" s="18">
         <f t="shared" si="6"/>
@@ -9863,7 +9849,7 @@
       </c>
       <c r="AC12" s="14">
         <f t="shared" si="7"/>
-        <v>18.329897077032559</v>
+        <v>17.87387967532468</v>
       </c>
       <c r="AD12" s="10" t="str">
         <f t="shared" si="2"/>
@@ -9876,44 +9862,44 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>4.3770800000000003</v>
-      </c>
-      <c r="C13">
-        <v>1.55674</v>
+      <c r="B13" s="26">
+        <v>3.9678399999999998</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1.5424599999999999</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>25</v>
       </c>
       <c r="G13">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I13">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="J13">
         <v>11</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M13">
         <v>16</v>
       </c>
       <c r="N13">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O13">
         <v>13</v>
@@ -9921,39 +9907,39 @@
       <c r="P13">
         <v>19</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13">
         <v>23</v>
       </c>
       <c r="R13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S13">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U13">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="V13">
         <v>0.61</v>
       </c>
       <c r="W13" s="7">
         <f t="shared" si="0"/>
-        <v>4301</v>
+        <v>5057</v>
       </c>
       <c r="X13" s="7">
         <f t="shared" si="3"/>
-        <v>25564</v>
+        <v>24332</v>
       </c>
       <c r="Y13" s="7">
         <f t="shared" si="4"/>
-        <v>21263</v>
+        <v>19275</v>
       </c>
       <c r="Z13" s="9">
         <f t="shared" si="5"/>
-        <v>0.83175559380378661</v>
+        <v>0.79216669406542828</v>
       </c>
       <c r="AA13" s="18">
         <f t="shared" si="6"/>
@@ -9965,7 +9951,7 @@
       </c>
       <c r="AC13" s="14">
         <f t="shared" si="7"/>
-        <v>17.022094483648885</v>
+        <v>16.21189735738945</v>
       </c>
       <c r="AD13" s="10" t="str">
         <f t="shared" si="2"/>
@@ -9978,26 +9964,26 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B14">
-        <v>6.8302500000000004</v>
-      </c>
-      <c r="C14">
-        <v>1.2706900000000001</v>
+      <c r="B14" s="26">
+        <v>3.3918599999999999</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1.6211100000000001</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>25</v>
       </c>
       <c r="G14">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>32</v>
@@ -10006,16 +9992,16 @@
         <v>11</v>
       </c>
       <c r="K14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N14">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O14">
         <v>13</v>
@@ -10023,39 +10009,39 @@
       <c r="P14">
         <v>19</v>
       </c>
-      <c r="Q14" s="3">
-        <v>22</v>
+      <c r="Q14">
+        <v>23</v>
       </c>
       <c r="R14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S14">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U14">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="V14">
         <v>0.61</v>
       </c>
       <c r="W14" s="7">
         <f t="shared" si="0"/>
-        <v>4704</v>
+        <v>5083</v>
       </c>
       <c r="X14" s="7">
         <f t="shared" si="3"/>
-        <v>37884</v>
+        <v>21560</v>
       </c>
       <c r="Y14" s="7">
         <f t="shared" si="4"/>
-        <v>33180</v>
+        <v>16477</v>
       </c>
       <c r="Z14" s="9">
         <f t="shared" si="5"/>
-        <v>0.87583148558758317</v>
+        <v>0.76423933209647499</v>
       </c>
       <c r="AA14" s="18">
         <f t="shared" si="6"/>
@@ -10067,7 +10053,7 @@
       </c>
       <c r="AC14" s="14">
         <f t="shared" si="7"/>
-        <v>17.924119068736147</v>
+        <v>15.640356633580708</v>
       </c>
       <c r="AD14" s="10" t="str">
         <f t="shared" si="2"/>
@@ -10080,26 +10066,26 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B15">
-        <v>7.1349200000000002</v>
-      </c>
-      <c r="C15">
-        <v>1.2358</v>
+      <c r="B15" s="26">
+        <v>7.7426000000000004</v>
+      </c>
+      <c r="C15" s="26">
+        <v>1.1329400000000001</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F15">
+        <v>24</v>
+      </c>
+      <c r="G15">
         <v>25</v>
       </c>
-      <c r="G15">
-        <v>46</v>
-      </c>
       <c r="H15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>32</v>
@@ -10108,56 +10094,56 @@
         <v>11</v>
       </c>
       <c r="K15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N15">
+        <v>17</v>
+      </c>
+      <c r="O15">
         <v>14</v>
-      </c>
-      <c r="O15">
-        <v>13</v>
       </c>
       <c r="P15">
         <v>19</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15">
         <v>23</v>
       </c>
       <c r="R15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S15">
         <v>46</v>
       </c>
       <c r="T15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U15">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="V15">
         <v>0.61</v>
       </c>
       <c r="W15" s="7">
         <f t="shared" si="0"/>
-        <v>4764</v>
+        <v>5200</v>
       </c>
       <c r="X15" s="7">
         <f t="shared" si="3"/>
-        <v>39424</v>
+        <v>42812</v>
       </c>
       <c r="Y15" s="7">
         <f t="shared" si="4"/>
-        <v>34660</v>
+        <v>37612</v>
       </c>
       <c r="Z15" s="9">
         <f t="shared" si="5"/>
-        <v>0.87915990259740262</v>
+        <v>0.87853872745959072</v>
       </c>
       <c r="AA15" s="18">
         <f t="shared" si="6"/>
@@ -10169,7 +10155,7 @@
       </c>
       <c r="AC15" s="14">
         <f t="shared" si="7"/>
-        <v>17.992235988230522</v>
+        <v>17.979523477529668</v>
       </c>
       <c r="AD15" s="10" t="str">
         <f t="shared" si="2"/>
@@ -10182,26 +10168,26 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B16">
-        <v>7.0739799999999997</v>
-      </c>
-      <c r="C16">
-        <v>1.24356</v>
+      <c r="B16" s="26">
+        <v>8.2177100000000003</v>
+      </c>
+      <c r="C16" s="26">
+        <v>1.1194</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F16">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I16">
         <v>32</v>
@@ -10210,16 +10196,16 @@
         <v>11</v>
       </c>
       <c r="K16">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L16">
         <v>41</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O16">
         <v>13</v>
@@ -10227,39 +10213,39 @@
       <c r="P16">
         <v>19</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16">
         <v>23</v>
       </c>
       <c r="R16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S16">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T16">
         <v>12</v>
       </c>
       <c r="U16">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="V16">
         <v>0.61</v>
       </c>
       <c r="W16" s="7">
         <f t="shared" si="0"/>
-        <v>4752</v>
+        <v>4740</v>
       </c>
       <c r="X16" s="7">
         <f t="shared" si="3"/>
-        <v>39116</v>
+        <v>44660</v>
       </c>
       <c r="Y16" s="7">
         <f t="shared" si="4"/>
-        <v>34364</v>
+        <v>39920</v>
       </c>
       <c r="Z16" s="9">
         <f t="shared" si="5"/>
-        <v>0.87851518560179975</v>
+        <v>0.8938647559337215</v>
       </c>
       <c r="AA16" s="18">
         <f t="shared" si="6"/>
@@ -10271,7 +10257,7 @@
       </c>
       <c r="AC16" s="14">
         <f t="shared" si="7"/>
-        <v>17.979041687289094</v>
+        <v>18.293174635020158</v>
       </c>
       <c r="AD16" s="10" t="str">
         <f t="shared" si="2"/>
@@ -10284,26 +10270,26 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="B17">
-        <v>6.8986000000000001</v>
-      </c>
-      <c r="C17">
-        <v>1.2688900000000001</v>
+      <c r="B17" s="26">
+        <v>3.7508699999999999</v>
+      </c>
+      <c r="C17" s="26">
+        <v>1.5480499999999999</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17">
         <v>25</v>
       </c>
-      <c r="G17">
-        <v>46</v>
-      </c>
       <c r="H17">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>32</v>
@@ -10321,47 +10307,47 @@
         <v>14</v>
       </c>
       <c r="N17">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O17">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P17">
         <v>19</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17">
         <v>23</v>
       </c>
       <c r="R17">
         <v>14</v>
       </c>
       <c r="S17">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U17">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="V17">
         <v>0.61</v>
       </c>
       <c r="W17" s="7">
         <f t="shared" si="0"/>
-        <v>4680</v>
+        <v>5187</v>
       </c>
       <c r="X17" s="7">
         <f t="shared" si="3"/>
-        <v>38192</v>
+        <v>23408</v>
       </c>
       <c r="Y17" s="7">
         <f t="shared" si="4"/>
-        <v>33512</v>
+        <v>18221</v>
       </c>
       <c r="Z17" s="9">
         <f t="shared" si="5"/>
-        <v>0.87746124842899031</v>
+        <v>0.77840909090909094</v>
       </c>
       <c r="AA17" s="18">
         <f t="shared" si="6"/>
@@ -10373,7 +10359,7 @@
       </c>
       <c r="AC17" s="14">
         <f t="shared" si="7"/>
-        <v>17.957472589023883</v>
+        <v>15.930344431818186</v>
       </c>
       <c r="AD17" s="10" t="str">
         <f t="shared" si="2"/>
@@ -10386,17 +10372,17 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B18">
-        <v>8.4713200000000004</v>
-      </c>
-      <c r="C18">
-        <v>1.1342000000000001</v>
+      <c r="B18" s="26">
+        <v>4.6039700000000003</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1.4254100000000001</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F18">
         <v>25</v>
@@ -10405,7 +10391,7 @@
         <v>25</v>
       </c>
       <c r="H18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>32</v>
@@ -10414,16 +10400,16 @@
         <v>11</v>
       </c>
       <c r="K18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L18">
         <v>40</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O18">
         <v>13</v>
@@ -10431,51 +10417,51 @@
       <c r="P18">
         <v>19</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18">
         <v>23</v>
       </c>
       <c r="R18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U18">
-        <v>298</v>
+        <v>180</v>
       </c>
       <c r="V18">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="W18" s="7">
         <f t="shared" si="0"/>
-        <v>4740</v>
+        <v>5096</v>
       </c>
       <c r="X18" s="7">
         <f t="shared" si="3"/>
-        <v>45892</v>
+        <v>27720</v>
       </c>
       <c r="Y18" s="7">
         <f t="shared" si="4"/>
-        <v>41152</v>
+        <v>22624</v>
       </c>
       <c r="Z18" s="9">
         <f t="shared" si="5"/>
-        <v>0.89671402423080271</v>
+        <v>0.8161616161616162</v>
       </c>
       <c r="AA18" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>1.8008800000000001E-6</v>
       </c>
       <c r="AB18" s="10">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
+        <v>19.697600000000005</v>
       </c>
       <c r="AC18" s="14">
         <f t="shared" si="7"/>
-        <v>18.351485651529682</v>
+        <v>16.076425050505055</v>
       </c>
       <c r="AD18" s="10" t="str">
         <f t="shared" si="2"/>
@@ -10488,17 +10474,17 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="B19">
-        <v>5.3620999999999999</v>
-      </c>
-      <c r="C19">
-        <v>1.42259</v>
+      <c r="B19" s="26">
+        <v>6.5325899999999999</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1.22699</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F19">
         <v>25</v>
@@ -10507,7 +10493,7 @@
         <v>25</v>
       </c>
       <c r="H19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>32</v>
@@ -10516,16 +10502,16 @@
         <v>11</v>
       </c>
       <c r="K19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N19">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O19">
         <v>13</v>
@@ -10533,39 +10519,39 @@
       <c r="P19">
         <v>19</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19">
         <v>23</v>
       </c>
       <c r="R19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S19">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U19">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="V19">
         <v>0.61</v>
       </c>
       <c r="W19" s="7">
         <f t="shared" si="0"/>
-        <v>4752</v>
+        <v>5226</v>
       </c>
       <c r="X19" s="7">
         <f t="shared" si="3"/>
-        <v>30800</v>
+        <v>36960</v>
       </c>
       <c r="Y19" s="7">
         <f t="shared" si="4"/>
-        <v>26048</v>
+        <v>31734</v>
       </c>
       <c r="Z19" s="9">
         <f t="shared" si="5"/>
-        <v>0.84571428571428575</v>
+        <v>0.85860389610389609</v>
       </c>
       <c r="AA19" s="18">
         <f t="shared" si="6"/>
@@ -10577,7 +10563,7 @@
       </c>
       <c r="AC19" s="14">
         <f t="shared" si="7"/>
-        <v>17.307762742857147</v>
+        <v>17.571551970779225</v>
       </c>
       <c r="AD19" s="10" t="str">
         <f t="shared" si="2"/>
@@ -10589,26 +10575,26 @@
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="B20">
-        <v>8.3395799999999998</v>
-      </c>
-      <c r="C20">
-        <v>1.14009</v>
+      <c r="B20" s="26">
+        <v>4.25007</v>
+      </c>
+      <c r="C20" s="26">
+        <v>1.46959</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20">
         <v>25</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>32</v>
@@ -10623,50 +10609,50 @@
         <v>40</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O20">
         <v>13</v>
       </c>
       <c r="P20">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q20">
         <v>23</v>
       </c>
       <c r="R20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S20">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U20">
-        <v>294</v>
+        <v>168</v>
       </c>
       <c r="V20">
         <v>0.61</v>
       </c>
       <c r="W20" s="7">
         <f t="shared" si="0"/>
-        <v>4764</v>
+        <v>5226</v>
       </c>
       <c r="X20" s="7">
         <f t="shared" si="3"/>
-        <v>45276</v>
+        <v>25872</v>
       </c>
       <c r="Y20" s="7">
         <f t="shared" si="4"/>
-        <v>40512</v>
+        <v>20646</v>
       </c>
       <c r="Z20" s="9">
         <f t="shared" si="5"/>
-        <v>0.89477869069705807</v>
+        <v>0.79800556586270877</v>
       </c>
       <c r="AA20" s="18">
         <f t="shared" si="6"/>
@@ -10678,7 +10664,7 @@
       </c>
       <c r="AC20" s="14">
         <f t="shared" si="7"/>
-        <v>18.311878547574878</v>
+        <v>16.331391386827462</v>
       </c>
       <c r="AD20" s="10" t="str">
         <f t="shared" si="2"/>
@@ -10690,26 +10676,26 @@
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="B21">
-        <v>5.20153</v>
-      </c>
-      <c r="C21">
-        <v>1.4655499999999999</v>
+      <c r="B21" s="26">
+        <v>4.6666499999999997</v>
+      </c>
+      <c r="C21" s="26">
+        <v>1.41781</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>32</v>
@@ -10718,68 +10704,68 @@
         <v>11</v>
       </c>
       <c r="K21">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L21">
         <v>40</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N21">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O21">
         <v>13</v>
       </c>
       <c r="P21">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q21">
         <v>23</v>
       </c>
       <c r="R21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S21">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U21">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="V21">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="W21" s="7">
         <f t="shared" si="0"/>
-        <v>4608</v>
+        <v>5096</v>
       </c>
       <c r="X21" s="7">
         <f t="shared" si="3"/>
-        <v>29876</v>
+        <v>28028</v>
       </c>
       <c r="Y21" s="7">
         <f t="shared" si="4"/>
-        <v>25268</v>
+        <v>22932</v>
       </c>
       <c r="Z21" s="9">
         <f t="shared" si="5"/>
-        <v>0.84576248493774264</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="AA21" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>1.8008800000000001E-6</v>
       </c>
       <c r="AB21" s="10">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
+        <v>19.697600000000005</v>
       </c>
       <c r="AC21" s="14">
         <f t="shared" si="7"/>
-        <v>17.30874915249699</v>
+        <v>16.116218181818187</v>
       </c>
       <c r="AD21" s="10" t="str">
         <f t="shared" si="2"/>
@@ -10791,84 +10777,84 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="B22">
-        <v>4.3040099999999999</v>
-      </c>
-      <c r="C22">
-        <v>1.5738300000000001</v>
+      <c r="B22" s="26">
+        <v>3.4338600000000001</v>
+      </c>
+      <c r="C22" s="26">
+        <v>1.59453</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G22">
         <v>25</v>
       </c>
       <c r="H22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I22">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J22">
         <v>11</v>
       </c>
       <c r="K22">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L22">
         <v>40</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N22">
+        <v>17</v>
+      </c>
+      <c r="O22">
         <v>13</v>
       </c>
-      <c r="O22">
-        <v>11</v>
-      </c>
       <c r="P22">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q22">
         <v>23</v>
       </c>
       <c r="R22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S22">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="T22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U22">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="V22">
         <v>0.61</v>
       </c>
       <c r="W22" s="7">
         <f t="shared" si="0"/>
-        <v>4656</v>
+        <v>5187</v>
       </c>
       <c r="X22" s="7">
         <f t="shared" si="3"/>
-        <v>25564</v>
+        <v>21868</v>
       </c>
       <c r="Y22" s="7">
         <f t="shared" si="4"/>
-        <v>20908</v>
+        <v>16681</v>
       </c>
       <c r="Z22" s="9">
         <f t="shared" si="5"/>
-        <v>0.81786887810984199</v>
+        <v>0.76280409731113952</v>
       </c>
       <c r="AA22" s="18">
         <f t="shared" si="6"/>
@@ -10880,7 +10866,7 @@
       </c>
       <c r="AC22" s="14">
         <f t="shared" si="7"/>
-        <v>16.737899236426227</v>
+        <v>15.610984180537775</v>
       </c>
       <c r="AD22" s="10" t="str">
         <f t="shared" si="2"/>
@@ -10892,26 +10878,26 @@
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="B23">
-        <v>7.92293</v>
-      </c>
-      <c r="C23">
-        <v>1.1830400000000001</v>
+      <c r="B23" s="26">
+        <v>8.3841800000000006</v>
+      </c>
+      <c r="C23" s="26">
+        <v>1.0948800000000001</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F23">
         <v>25</v>
       </c>
       <c r="G23">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H23">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>32</v>
@@ -10920,68 +10906,68 @@
         <v>11</v>
       </c>
       <c r="K23">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N23">
+        <v>17</v>
+      </c>
+      <c r="O23">
         <v>14</v>
-      </c>
-      <c r="O23">
-        <v>13</v>
       </c>
       <c r="P23">
         <v>19</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23">
         <v>23</v>
       </c>
       <c r="R23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S23">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T23">
         <v>12</v>
       </c>
       <c r="U23">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="V23">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="W23" s="7">
         <f t="shared" si="0"/>
-        <v>4632</v>
+        <v>4692</v>
       </c>
       <c r="X23" s="7">
         <f t="shared" si="3"/>
-        <v>43120</v>
+        <v>45892</v>
       </c>
       <c r="Y23" s="7">
         <f t="shared" si="4"/>
-        <v>38488</v>
+        <v>41200</v>
       </c>
       <c r="Z23" s="9">
         <f t="shared" si="5"/>
-        <v>0.89257884972170687</v>
+        <v>0.89775995816264276</v>
       </c>
       <c r="AA23" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>1.8008800000000001E-6</v>
       </c>
       <c r="AB23" s="10">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
+        <v>19.697600000000005</v>
       </c>
       <c r="AC23" s="14">
         <f t="shared" si="7"/>
-        <v>18.266858230055661</v>
+        <v>17.683716551904478</v>
       </c>
       <c r="AD23" s="10" t="str">
         <f t="shared" si="2"/>
@@ -10993,26 +10979,26 @@
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="B24">
-        <v>3.5283500000000001</v>
-      </c>
-      <c r="C24">
-        <v>1.6755</v>
+      <c r="B24" s="26">
+        <v>6.8003400000000003</v>
+      </c>
+      <c r="C24" s="26">
+        <v>1.1996800000000001</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>32</v>
@@ -11024,21 +11010,21 @@
         <v>26</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N24">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O24">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P24">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q24">
         <v>23</v>
       </c>
       <c r="R24">
@@ -11048,41 +11034,41 @@
         <v>46</v>
       </c>
       <c r="T24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U24">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="V24">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="W24" s="7">
         <f t="shared" si="0"/>
-        <v>4728</v>
+        <v>5083</v>
       </c>
       <c r="X24" s="7">
         <f t="shared" si="3"/>
-        <v>21868</v>
+        <v>38500</v>
       </c>
       <c r="Y24" s="7">
         <f t="shared" si="4"/>
-        <v>17140</v>
+        <v>33417</v>
       </c>
       <c r="Z24" s="9">
         <f t="shared" si="5"/>
-        <v>0.78379367111761478</v>
+        <v>0.86797402597402595</v>
       </c>
       <c r="AA24" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>1.8008800000000001E-6</v>
       </c>
       <c r="AB24" s="10">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
+        <v>19.697600000000005</v>
       </c>
       <c r="AC24" s="14">
         <f t="shared" si="7"/>
-        <v>16.040541265776479</v>
+        <v>17.097005174025977</v>
       </c>
       <c r="AD24" s="10" t="str">
         <f t="shared" si="2"/>
@@ -11094,44 +11080,44 @@
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="B25">
-        <v>3.97464</v>
-      </c>
-      <c r="C25">
-        <v>1.57934</v>
+      <c r="B25" s="26">
+        <v>3.4999400000000001</v>
+      </c>
+      <c r="C25" s="26">
+        <v>1.58789</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>25</v>
       </c>
       <c r="G25">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I25">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="J25">
         <v>11</v>
       </c>
       <c r="K25">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="L25">
         <v>40</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N25">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O25">
         <v>13</v>
@@ -11139,39 +11125,39 @@
       <c r="P25">
         <v>19</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25">
         <v>23</v>
       </c>
       <c r="R25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S25">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U25">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="V25">
         <v>0.61</v>
       </c>
       <c r="W25" s="7">
         <f t="shared" si="0"/>
-        <v>4716</v>
+        <v>5174</v>
       </c>
       <c r="X25" s="7">
         <f t="shared" si="3"/>
-        <v>24024</v>
+        <v>22176</v>
       </c>
       <c r="Y25" s="7">
         <f t="shared" si="4"/>
-        <v>19308</v>
+        <v>17002</v>
       </c>
       <c r="Z25" s="9">
         <f t="shared" si="5"/>
-        <v>0.80369630369630374</v>
+        <v>0.76668470418470414</v>
       </c>
       <c r="AA25" s="18">
         <f t="shared" si="6"/>
@@ -11183,7 +11169,7 @@
       </c>
       <c r="AC25" s="14">
         <f t="shared" si="7"/>
-        <v>16.447853816183819</v>
+        <v>15.690401809163061</v>
       </c>
       <c r="AD25" s="10" t="str">
         <f t="shared" si="2"/>
@@ -11195,26 +11181,26 @@
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="B26">
-        <v>3.8626499999999999</v>
-      </c>
-      <c r="C26">
-        <v>1.64612</v>
+      <c r="B26" s="26">
+        <v>6.43384</v>
+      </c>
+      <c r="C26" s="26">
+        <v>1.2483599999999999</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F26">
         <v>25</v>
       </c>
       <c r="G26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H26">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I26">
         <v>32</v>
@@ -11229,62 +11215,62 @@
         <v>41</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N26">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O26">
         <v>13</v>
       </c>
       <c r="P26">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q26">
         <v>23</v>
       </c>
       <c r="R26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S26">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T26">
         <v>12</v>
       </c>
       <c r="U26">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="V26">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="W26" s="7">
         <f t="shared" si="0"/>
-        <v>4644</v>
+        <v>4728</v>
       </c>
       <c r="X26" s="7">
         <f t="shared" si="3"/>
-        <v>23408</v>
+        <v>36344</v>
       </c>
       <c r="Y26" s="7">
         <f t="shared" si="4"/>
-        <v>18764</v>
+        <v>31616</v>
       </c>
       <c r="Z26" s="9">
         <f t="shared" si="5"/>
-        <v>0.80160628844839377</v>
+        <v>0.86990975126568348</v>
       </c>
       <c r="AA26" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>1.8008800000000001E-6</v>
       </c>
       <c r="AB26" s="10">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
+        <v>19.697600000000005</v>
       </c>
       <c r="AC26" s="14">
         <f t="shared" si="7"/>
-        <v>16.405081110731377</v>
+        <v>17.13513431653093</v>
       </c>
       <c r="AD26" s="10" t="str">
         <f t="shared" si="2"/>
@@ -11296,17 +11282,17 @@
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="B27">
-        <v>5.4082100000000004</v>
-      </c>
-      <c r="C27">
-        <v>1.4055899999999999</v>
+      <c r="B27" s="26">
+        <v>6.3158099999999999</v>
+      </c>
+      <c r="C27" s="26">
+        <v>1.2659100000000001</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F27">
         <v>25</v>
@@ -11315,25 +11301,25 @@
         <v>24</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I27">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J27">
         <v>11</v>
       </c>
       <c r="K27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O27">
         <v>13</v>
@@ -11341,11 +11327,11 @@
       <c r="P27">
         <v>19</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27">
         <v>23</v>
       </c>
       <c r="R27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S27">
         <v>46</v>
@@ -11354,38 +11340,38 @@
         <v>12</v>
       </c>
       <c r="U27">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="V27">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="W27" s="7">
         <f t="shared" si="0"/>
-        <v>4836</v>
+        <v>4692</v>
       </c>
       <c r="X27" s="7">
         <f t="shared" si="3"/>
-        <v>31108</v>
+        <v>35728</v>
       </c>
       <c r="Y27" s="7">
         <f t="shared" si="4"/>
-        <v>26272</v>
+        <v>31036</v>
       </c>
       <c r="Z27" s="9">
         <f t="shared" si="5"/>
-        <v>0.8445415970168445</v>
+        <v>0.86867442901925662</v>
       </c>
       <c r="AA27" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>1.8008800000000001E-6</v>
       </c>
       <c r="AB27" s="10">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
+        <v>19.697600000000005</v>
       </c>
       <c r="AC27" s="14">
         <f t="shared" si="7"/>
-        <v>17.283763363764951</v>
+        <v>17.110801433049712</v>
       </c>
       <c r="AD27" s="10" t="str">
         <f t="shared" si="2"/>
@@ -11397,26 +11383,26 @@
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="B28">
-        <v>3.47729</v>
-      </c>
-      <c r="C28">
-        <v>1.6943999999999999</v>
+      <c r="B28" s="26">
+        <v>4.54129</v>
+      </c>
+      <c r="C28" s="26">
+        <v>1.4333100000000001</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F28">
         <v>25</v>
       </c>
       <c r="G28">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I28">
         <v>32</v>
@@ -11428,13 +11414,13 @@
         <v>26</v>
       </c>
       <c r="L28">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N28">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O28">
         <v>13</v>
@@ -11442,51 +11428,51 @@
       <c r="P28">
         <v>19</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28">
         <v>23</v>
       </c>
       <c r="R28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S28">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U28">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="V28">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="W28" s="7">
         <f t="shared" si="0"/>
-        <v>4668</v>
+        <v>5096</v>
       </c>
       <c r="X28" s="7">
         <f t="shared" si="3"/>
-        <v>21560</v>
+        <v>27412</v>
       </c>
       <c r="Y28" s="7">
         <f t="shared" si="4"/>
-        <v>16892</v>
+        <v>22316</v>
       </c>
       <c r="Z28" s="9">
         <f t="shared" si="5"/>
-        <v>0.78348794063079774</v>
+        <v>0.81409601634320738</v>
       </c>
       <c r="AA28" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>1.8008800000000001E-6</v>
       </c>
       <c r="AB28" s="10">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
+        <v>19.697600000000005</v>
       </c>
       <c r="AC28" s="14">
         <f t="shared" si="7"/>
-        <v>16.034284411873845</v>
+        <v>16.035737691521966</v>
       </c>
       <c r="AD28" s="10" t="str">
         <f t="shared" si="2"/>
@@ -11498,17 +11484,17 @@
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="B29">
-        <v>3.65021</v>
-      </c>
-      <c r="C29">
-        <v>1.6605300000000001</v>
+      <c r="B29" s="26">
+        <v>8.3166200000000003</v>
+      </c>
+      <c r="C29" s="26">
+        <v>1.09598</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E29">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29">
         <v>25</v>
@@ -11517,77 +11503,77 @@
         <v>24</v>
       </c>
       <c r="H29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I29">
         <v>32</v>
       </c>
       <c r="J29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K29">
         <v>26</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N29">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O29">
         <v>13</v>
       </c>
       <c r="P29">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q29">
         <v>23</v>
       </c>
       <c r="R29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S29">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T29">
         <v>12</v>
       </c>
       <c r="U29">
-        <v>146</v>
+        <v>296</v>
       </c>
       <c r="V29">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="W29" s="7">
         <f t="shared" si="0"/>
-        <v>4752</v>
+        <v>4716</v>
       </c>
       <c r="X29" s="7">
         <f t="shared" si="3"/>
-        <v>22484</v>
+        <v>45584</v>
       </c>
       <c r="Y29" s="7">
         <f t="shared" si="4"/>
-        <v>17732</v>
+        <v>40868</v>
       </c>
       <c r="Z29" s="9">
         <f t="shared" si="5"/>
-        <v>0.78864970645792565</v>
+        <v>0.89654264654264659</v>
       </c>
       <c r="AA29" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>1.8008800000000001E-6</v>
       </c>
       <c r="AB29" s="10">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
+        <v>19.697600000000005</v>
       </c>
       <c r="AC29" s="14">
         <f t="shared" si="7"/>
-        <v>16.139921291585132</v>
+        <v>17.65973843453844</v>
       </c>
       <c r="AD29" s="10" t="str">
         <f t="shared" si="2"/>
@@ -11599,26 +11585,26 @@
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="B30">
-        <v>3.5794000000000001</v>
-      </c>
-      <c r="C30">
-        <v>1.66391</v>
+      <c r="B30" s="26">
+        <v>6.9871100000000004</v>
+      </c>
+      <c r="C30" s="26">
+        <v>1.19493</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E30">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F30">
         <v>25</v>
       </c>
       <c r="G30">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I30">
         <v>32</v>
@@ -11630,21 +11616,21 @@
         <v>26</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N30">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O30">
         <v>13</v>
       </c>
       <c r="P30">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q30">
         <v>23</v>
       </c>
       <c r="R30">
@@ -11654,29 +11640,29 @@
         <v>46</v>
       </c>
       <c r="T30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U30">
-        <v>144</v>
+        <v>254</v>
       </c>
       <c r="V30">
         <v>0.61</v>
       </c>
       <c r="W30" s="7">
         <f t="shared" si="0"/>
-        <v>4788</v>
+        <v>5174</v>
       </c>
       <c r="X30" s="7">
         <f t="shared" si="3"/>
-        <v>22176</v>
+        <v>39116</v>
       </c>
       <c r="Y30" s="7">
         <f t="shared" si="4"/>
-        <v>17388</v>
+        <v>33942</v>
       </c>
       <c r="Z30" s="9">
         <f t="shared" si="5"/>
-        <v>0.78409090909090906</v>
+        <v>0.86772676142754879</v>
       </c>
       <c r="AA30" s="18">
         <f t="shared" si="6"/>
@@ -11688,7 +11674,7 @@
       </c>
       <c r="AC30" s="14">
         <f t="shared" si="7"/>
-        <v>16.04662431818182</v>
+        <v>17.758253781572762</v>
       </c>
       <c r="AD30" s="10" t="str">
         <f t="shared" si="2"/>
@@ -11700,26 +11686,26 @@
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="B31">
-        <v>5.1381300000000003</v>
-      </c>
-      <c r="C31">
-        <v>1.4678100000000001</v>
+      <c r="B31" s="26">
+        <v>3.97052</v>
+      </c>
+      <c r="C31" s="26">
+        <v>1.54186</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F31">
+        <v>25</v>
+      </c>
+      <c r="G31">
         <v>24</v>
       </c>
-      <c r="G31">
-        <v>46</v>
-      </c>
       <c r="H31">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I31">
         <v>32</v>
@@ -11728,56 +11714,56 @@
         <v>11</v>
       </c>
       <c r="K31">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L31">
         <v>40</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N31">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O31">
         <v>13</v>
       </c>
       <c r="P31">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q31">
         <v>23</v>
       </c>
       <c r="R31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S31">
         <v>46</v>
       </c>
       <c r="T31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U31">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="V31">
         <v>0.61</v>
       </c>
       <c r="W31" s="7">
         <f t="shared" si="0"/>
-        <v>4608</v>
+        <v>5044</v>
       </c>
       <c r="X31" s="7">
         <f t="shared" si="3"/>
-        <v>29568</v>
+        <v>24332</v>
       </c>
       <c r="Y31" s="7">
         <f t="shared" si="4"/>
-        <v>24960</v>
+        <v>19288</v>
       </c>
       <c r="Z31" s="9">
         <f t="shared" si="5"/>
-        <v>0.8441558441558441</v>
+        <v>0.79270096991615979</v>
       </c>
       <c r="AA31" s="18">
         <f t="shared" si="6"/>
@@ -11789,7 +11775,7 @@
       </c>
       <c r="AC31" s="14">
         <f t="shared" si="7"/>
-        <v>17.275868831168832</v>
+        <v>16.222831451586391</v>
       </c>
       <c r="AD31" s="10" t="str">
         <f t="shared" si="2"/>
@@ -11801,26 +11787,26 @@
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="B32">
-        <v>8.4787300000000005</v>
-      </c>
-      <c r="C32">
-        <v>1.1341699999999999</v>
+      <c r="B32" s="26">
+        <v>4.1446699999999996</v>
+      </c>
+      <c r="C32" s="26">
+        <v>1.5037199999999999</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F32">
         <v>25</v>
       </c>
       <c r="G32">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H32">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I32">
         <v>32</v>
@@ -11829,16 +11815,16 @@
         <v>11</v>
       </c>
       <c r="K32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L32">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N32">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O32">
         <v>13</v>
@@ -11846,39 +11832,39 @@
       <c r="P32">
         <v>19</v>
       </c>
-      <c r="Q32" s="3">
-        <v>22</v>
+      <c r="Q32">
+        <v>23</v>
       </c>
       <c r="R32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S32">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U32">
-        <v>298</v>
+        <v>164</v>
       </c>
       <c r="V32">
         <v>0.61</v>
       </c>
       <c r="W32" s="7">
         <f t="shared" si="0"/>
-        <v>4704</v>
+        <v>5122</v>
       </c>
       <c r="X32" s="7">
         <f t="shared" si="3"/>
-        <v>45892</v>
+        <v>25256</v>
       </c>
       <c r="Y32" s="7">
         <f t="shared" si="4"/>
-        <v>41188</v>
+        <v>20134</v>
       </c>
       <c r="Z32" s="9">
         <f t="shared" si="5"/>
-        <v>0.89749847467968269</v>
+        <v>0.79719670573329104</v>
       </c>
       <c r="AA32" s="18">
         <f t="shared" si="6"/>
@@ -11890,7 +11876,7 @@
       </c>
       <c r="AC32" s="14">
         <f t="shared" si="7"/>
-        <v>18.367539633923126</v>
+        <v>16.314837853975295</v>
       </c>
       <c r="AD32" s="10" t="str">
         <f t="shared" si="2"/>
@@ -11903,56 +11889,56 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="B33">
-        <v>3.9260600000000001</v>
-      </c>
-      <c r="C33">
-        <v>1.63534</v>
+      <c r="B33" s="26">
+        <v>6.3131399999999998</v>
+      </c>
+      <c r="C33" s="26">
+        <v>1.27949</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F33">
         <v>25</v>
       </c>
       <c r="G33">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N33">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O33">
         <v>13</v>
       </c>
       <c r="P33">
-        <v>18</v>
-      </c>
-      <c r="Q33" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q33">
         <v>23</v>
       </c>
       <c r="R33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S33">
         <v>46</v>
@@ -11961,26 +11947,26 @@
         <v>12</v>
       </c>
       <c r="U33">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="V33">
         <v>0.61</v>
       </c>
       <c r="W33" s="7">
         <f t="shared" si="0"/>
-        <v>4644</v>
+        <v>4752</v>
       </c>
       <c r="X33" s="7">
         <f t="shared" si="3"/>
-        <v>23716</v>
+        <v>35420</v>
       </c>
       <c r="Y33" s="7">
         <f t="shared" si="4"/>
-        <v>19072</v>
+        <v>30668</v>
       </c>
       <c r="Z33" s="9">
         <f t="shared" si="5"/>
-        <v>0.8041828301568561</v>
+        <v>0.8658385093167702</v>
       </c>
       <c r="AA33" s="18">
         <f t="shared" si="6"/>
@@ -11992,7 +11978,7 @@
       </c>
       <c r="AC33" s="14">
         <f t="shared" si="7"/>
-        <v>16.457810706695906</v>
+        <v>17.719610211180129</v>
       </c>
       <c r="AD33" s="10" t="str">
         <f t="shared" si="2"/>
@@ -12005,25 +11991,25 @@
         <v>25</v>
       </c>
       <c r="B34">
-        <v>8.1666600000000003</v>
+        <v>7.3568300000000004</v>
       </c>
       <c r="C34">
-        <v>1.1600600000000001</v>
+        <v>1.1600999999999999</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F34">
         <v>25</v>
       </c>
       <c r="G34">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I34">
         <v>32</v>
@@ -12035,53 +12021,53 @@
         <v>26</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M34">
+        <v>16</v>
+      </c>
+      <c r="N34">
+        <v>25</v>
+      </c>
+      <c r="O34">
         <v>14</v>
-      </c>
-      <c r="N34">
-        <v>14</v>
-      </c>
-      <c r="O34">
-        <v>17</v>
       </c>
       <c r="P34">
         <v>19</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34">
         <v>23</v>
       </c>
       <c r="R34">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S34">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U34">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="V34">
         <v>0.61</v>
       </c>
       <c r="W34" s="7">
         <f t="shared" si="0"/>
-        <v>4680</v>
+        <v>5226</v>
       </c>
       <c r="X34" s="7">
         <f t="shared" si="3"/>
-        <v>44352</v>
+        <v>40964</v>
       </c>
       <c r="Y34" s="7">
         <f t="shared" si="4"/>
-        <v>39672</v>
+        <v>35738</v>
       </c>
       <c r="Z34" s="9">
         <f t="shared" si="5"/>
-        <v>0.89448051948051943</v>
+        <v>0.87242456791328971</v>
       </c>
       <c r="AA34" s="18">
         <f t="shared" si="6"/>
@@ -12093,7 +12079,7 @@
       </c>
       <c r="AC34" s="14">
         <f t="shared" si="7"/>
-        <v>18.305776396103898</v>
+        <v>17.854395612733136</v>
       </c>
       <c r="AD34" s="10" t="str">
         <f t="shared" si="2"/>
@@ -12106,16 +12092,16 @@
         <v>26</v>
       </c>
       <c r="B35">
-        <v>5.2912800000000004</v>
+        <v>8.4370899999999995</v>
       </c>
       <c r="C35">
-        <v>1.4300200000000001</v>
+        <v>1.08483</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E35">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F35">
         <v>25</v>
@@ -12124,25 +12110,25 @@
         <v>24</v>
       </c>
       <c r="H35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J35">
         <v>11</v>
       </c>
       <c r="K35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N35">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O35">
         <v>13</v>
@@ -12150,51 +12136,51 @@
       <c r="P35">
         <v>19</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35">
         <v>23</v>
       </c>
       <c r="R35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S35">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T35">
         <v>12</v>
       </c>
       <c r="U35">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="V35">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="W35" s="7">
         <f t="shared" si="0"/>
-        <v>4788</v>
+        <v>4740</v>
       </c>
       <c r="X35" s="7">
         <f t="shared" si="3"/>
-        <v>30492</v>
+        <v>46200</v>
       </c>
       <c r="Y35" s="7">
         <f t="shared" si="4"/>
-        <v>25704</v>
+        <v>41460</v>
       </c>
       <c r="Z35" s="9">
         <f t="shared" si="5"/>
-        <v>0.84297520661157022</v>
+        <v>0.89740259740259742</v>
       </c>
       <c r="AA35" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>1.8008800000000001E-6</v>
       </c>
       <c r="AB35" s="10">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
+        <v>19.697600000000005</v>
       </c>
       <c r="AC35" s="14">
         <f t="shared" si="7"/>
-        <v>17.251706776859507</v>
+        <v>17.676677402597406</v>
       </c>
       <c r="AD35" s="10" t="str">
         <f t="shared" si="2"/>
@@ -12207,25 +12193,25 @@
         <v>27</v>
       </c>
       <c r="B36">
-        <v>5.25258</v>
+        <v>6.4325400000000004</v>
       </c>
       <c r="C36">
-        <v>1.45201</v>
+        <v>1.2526299999999999</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E36">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F36">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G36">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H36">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I36">
         <v>32</v>
@@ -12243,47 +12229,47 @@
         <v>16</v>
       </c>
       <c r="N36">
+        <v>17</v>
+      </c>
+      <c r="O36">
         <v>13</v>
       </c>
-      <c r="O36">
-        <v>17</v>
-      </c>
       <c r="P36">
-        <v>18</v>
-      </c>
-      <c r="Q36" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q36">
         <v>23</v>
       </c>
       <c r="R36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S36">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U36">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="V36">
         <v>0.61</v>
       </c>
       <c r="W36" s="7">
         <f t="shared" si="0"/>
-        <v>4668</v>
+        <v>5096</v>
       </c>
       <c r="X36" s="7">
         <f t="shared" si="3"/>
-        <v>30184</v>
+        <v>36344</v>
       </c>
       <c r="Y36" s="7">
         <f t="shared" si="4"/>
-        <v>25516</v>
+        <v>31248</v>
       </c>
       <c r="Z36" s="9">
         <f t="shared" si="5"/>
-        <v>0.84534852902199842</v>
+        <v>0.8597842835130971</v>
       </c>
       <c r="AA36" s="18">
         <f t="shared" si="6"/>
@@ -12295,7 +12281,7 @@
       </c>
       <c r="AC36" s="14">
         <f t="shared" si="7"/>
-        <v>17.300277437052745</v>
+        <v>17.59570890600925</v>
       </c>
       <c r="AD36" s="10" t="str">
         <f t="shared" si="2"/>
@@ -12308,25 +12294,25 @@
         <v>28</v>
       </c>
       <c r="B37">
-        <v>6.6523899999999996</v>
+        <v>6.3137600000000003</v>
       </c>
       <c r="C37">
-        <v>1.29498</v>
+        <v>1.2679499999999999</v>
       </c>
       <c r="D37">
         <v>10</v>
       </c>
       <c r="E37">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F37">
         <v>25</v>
       </c>
       <c r="G37">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="H37">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I37">
         <v>32</v>
@@ -12341,10 +12327,10 @@
         <v>40</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N37">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O37">
         <v>13</v>
@@ -12352,39 +12338,39 @@
       <c r="P37">
         <v>19</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37">
         <v>23</v>
       </c>
       <c r="R37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S37">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U37">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="V37">
         <v>0.61</v>
       </c>
       <c r="W37" s="7">
         <f t="shared" si="0"/>
-        <v>4644</v>
+        <v>5057</v>
       </c>
       <c r="X37" s="7">
         <f t="shared" si="3"/>
-        <v>36960</v>
+        <v>35728</v>
       </c>
       <c r="Y37" s="7">
         <f t="shared" si="4"/>
-        <v>32316</v>
+        <v>30671</v>
       </c>
       <c r="Z37" s="9">
         <f t="shared" si="5"/>
-        <v>0.87435064935064932</v>
+        <v>0.85845835199283471</v>
       </c>
       <c r="AA37" s="18">
         <f t="shared" si="6"/>
@@ -12396,7 +12382,7 @@
       </c>
       <c r="AC37" s="14">
         <f t="shared" si="7"/>
-        <v>17.893813370129873</v>
+        <v>17.568573372704883</v>
       </c>
       <c r="AD37" s="10" t="str">
         <f t="shared" si="2"/>
@@ -12408,100 +12394,29 @@
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="B38">
-        <v>7.5548599999999997</v>
-      </c>
-      <c r="C38">
-        <v>1.2233400000000001</v>
-      </c>
-      <c r="D38">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>38</v>
-      </c>
-      <c r="F38">
-        <v>25</v>
-      </c>
-      <c r="G38">
-        <v>25</v>
-      </c>
-      <c r="H38">
-        <v>33</v>
-      </c>
-      <c r="I38">
-        <v>33</v>
-      </c>
-      <c r="J38">
-        <v>11</v>
-      </c>
-      <c r="K38">
-        <v>27</v>
-      </c>
-      <c r="L38">
-        <v>40</v>
-      </c>
-      <c r="M38">
-        <v>14</v>
-      </c>
-      <c r="N38">
-        <v>13</v>
-      </c>
-      <c r="O38">
-        <v>11</v>
-      </c>
-      <c r="P38">
-        <v>18</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>23</v>
-      </c>
-      <c r="R38">
-        <v>14</v>
-      </c>
-      <c r="S38">
-        <v>46</v>
-      </c>
-      <c r="T38">
-        <v>12</v>
-      </c>
-      <c r="U38">
-        <v>268</v>
-      </c>
-      <c r="V38">
-        <v>0.61</v>
-      </c>
-      <c r="W38" s="7">
-        <f t="shared" si="0"/>
-        <v>4572</v>
-      </c>
-      <c r="X38" s="7">
-        <f t="shared" si="3"/>
-        <v>41272</v>
-      </c>
-      <c r="Y38" s="7">
-        <f t="shared" si="4"/>
-        <v>36700</v>
-      </c>
-      <c r="Z38" s="9">
+      <c r="Q38" s="3"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.88922271758092652</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA38" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB38" s="10">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC38" s="14">
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC38" s="14" t="e">
         <f t="shared" si="7"/>
-        <v>18.198174113200235</v>
-      </c>
-      <c r="AD38" s="10" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD38" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.35">
@@ -12509,100 +12424,29 @@
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="B39">
-        <v>5.8816699999999997</v>
-      </c>
-      <c r="C39">
-        <v>1.37632</v>
-      </c>
-      <c r="D39">
-        <v>26</v>
-      </c>
-      <c r="E39">
-        <v>27</v>
-      </c>
-      <c r="F39">
-        <v>25</v>
-      </c>
-      <c r="G39">
-        <v>24</v>
-      </c>
-      <c r="H39">
-        <v>33</v>
-      </c>
-      <c r="I39">
-        <v>32</v>
-      </c>
-      <c r="J39">
-        <v>11</v>
-      </c>
-      <c r="K39">
-        <v>27</v>
-      </c>
-      <c r="L39">
-        <v>40</v>
-      </c>
-      <c r="M39">
-        <v>25</v>
-      </c>
-      <c r="N39">
-        <v>13</v>
-      </c>
-      <c r="O39">
-        <v>13</v>
-      </c>
-      <c r="P39">
-        <v>12</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>23</v>
-      </c>
-      <c r="R39">
-        <v>14</v>
-      </c>
-      <c r="S39">
-        <v>46</v>
-      </c>
-      <c r="T39">
-        <v>12</v>
-      </c>
-      <c r="U39">
-        <v>216</v>
-      </c>
-      <c r="V39">
-        <v>0.61</v>
-      </c>
-      <c r="W39" s="7">
-        <f t="shared" si="0"/>
-        <v>4692</v>
-      </c>
-      <c r="X39" s="7">
-        <f t="shared" si="3"/>
-        <v>33264</v>
-      </c>
-      <c r="Y39" s="7">
-        <f t="shared" si="4"/>
-        <v>28572</v>
-      </c>
-      <c r="Z39" s="9">
+      <c r="Q39" s="3"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.8589466089466089</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA39" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB39" s="10">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC39" s="14">
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC39" s="14" t="e">
         <f t="shared" si="7"/>
-        <v>17.57856567821068</v>
-      </c>
-      <c r="AD39" s="10" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD39" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.35">
@@ -12610,100 +12454,29 @@
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="B40">
-        <v>6.6211000000000002</v>
-      </c>
-      <c r="C40">
-        <v>1.3227</v>
-      </c>
-      <c r="D40">
-        <v>11</v>
-      </c>
-      <c r="E40">
-        <v>19</v>
-      </c>
-      <c r="F40">
-        <v>25</v>
-      </c>
-      <c r="G40">
-        <v>46</v>
-      </c>
-      <c r="H40">
-        <v>22</v>
-      </c>
-      <c r="I40">
-        <v>31</v>
-      </c>
-      <c r="J40">
-        <v>11</v>
-      </c>
-      <c r="K40">
-        <v>26</v>
-      </c>
-      <c r="L40">
-        <v>40</v>
-      </c>
-      <c r="M40">
-        <v>15</v>
-      </c>
-      <c r="N40">
-        <v>13</v>
-      </c>
-      <c r="O40">
-        <v>13</v>
-      </c>
-      <c r="P40">
-        <v>19</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>23</v>
-      </c>
-      <c r="R40">
-        <v>14</v>
-      </c>
-      <c r="S40">
-        <v>46</v>
-      </c>
-      <c r="T40">
-        <v>12</v>
-      </c>
-      <c r="U40">
-        <v>238</v>
-      </c>
-      <c r="V40">
-        <v>0.61</v>
-      </c>
-      <c r="W40" s="7">
-        <f t="shared" si="0"/>
-        <v>4488</v>
-      </c>
-      <c r="X40" s="7">
-        <f t="shared" si="3"/>
-        <v>36652</v>
-      </c>
-      <c r="Y40" s="7">
-        <f t="shared" si="4"/>
-        <v>32164</v>
-      </c>
-      <c r="Z40" s="9">
+      <c r="Q40" s="3"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="9" t="e">
         <f t="shared" si="5"/>
-        <v>0.87755102040816324</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AA40" s="18">
         <f t="shared" si="6"/>
-        <v>1.821721E-6</v>
+        <v>5.5041999999999997E-7</v>
       </c>
       <c r="AB40" s="10">
         <f t="shared" si="1"/>
-        <v>20.465260000000004</v>
-      </c>
-      <c r="AC40" s="14">
+        <v>-26.361999999999998</v>
+      </c>
+      <c r="AC40" s="14" t="e">
         <f t="shared" si="7"/>
-        <v>17.959309795918372</v>
-      </c>
-      <c r="AD40" s="10" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD40" s="10" t="e">
         <f t="shared" si="2"/>
-        <v>cumple</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.35">
